--- a/C1A2/iotable.xlsx
+++ b/C1A2/iotable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02658A90-8FFD-48B5-89C1-D8F344AAEDA7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182D24F3-0A5A-4692-B4C0-C46E89128A94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="256">
   <si>
     <t>Channel</t>
   </si>
@@ -363,21 +363,6 @@
     <t>Lift3</t>
   </si>
   <si>
-    <t>AMs1</t>
-  </si>
-  <si>
-    <t>AMs2</t>
-  </si>
-  <si>
-    <t>MsB1</t>
-  </si>
-  <si>
-    <t>MsB2</t>
-  </si>
-  <si>
-    <t>MsB3</t>
-  </si>
-  <si>
     <t>CMs1</t>
   </si>
   <si>
@@ -438,30 +423,6 @@
     <t>慢速</t>
   </si>
   <si>
-    <t>SWING_1</t>
-  </si>
-  <si>
-    <t>SWING_2</t>
-  </si>
-  <si>
-    <t>SWING_3</t>
-  </si>
-  <si>
-    <t>SWING_4</t>
-  </si>
-  <si>
-    <t>SWING_5</t>
-  </si>
-  <si>
-    <t>SWING_6</t>
-  </si>
-  <si>
-    <t>SWING_7</t>
-  </si>
-  <si>
-    <t>SWING_8</t>
-  </si>
-  <si>
     <t>搖擺1</t>
   </si>
   <si>
@@ -820,6 +781,27 @@
   </si>
   <si>
     <t>TopVertical</t>
+  </si>
+  <si>
+    <t>預備抓取</t>
+  </si>
+  <si>
+    <t>抓取</t>
+  </si>
+  <si>
+    <t>預備拍照</t>
+  </si>
+  <si>
+    <t>Pick</t>
+  </si>
+  <si>
+    <t>ReadyPick</t>
+  </si>
+  <si>
+    <t>Comp</t>
+  </si>
+  <si>
+    <t>補償</t>
   </si>
 </sst>
 </file>
@@ -1266,10 +1248,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10:O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,7 +1279,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -1356,7 +1339,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B7">
         <f>MIN(B3:B4)</f>
@@ -1386,7 +1369,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>61</v>
@@ -1434,7 +1417,7 @@
         <v>46</v>
       </c>
       <c r="U9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -1451,35 +1434,35 @@
         <v>11</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(P10="",$B$2,$B$2)</f>
+        <f t="shared" ref="E10:E39" si="0">IF(P10="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F10" s="1" t="e">
-        <f>IF(L10&lt;&gt;"",FLOOR((L10-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F10:F41" si="1">IF(L10&lt;&gt;"",FLOOR((L10-MIN(L:L))/2,1),"")</f>
         <v>#REF!</v>
       </c>
       <c r="G10" s="1" t="e">
-        <f>IF(MOD(L10-$B$6,2)=1,8+M10,M10)</f>
+        <f t="shared" ref="G10:G41" si="2">IF(MOD(L10-$B$6,2)=1,8+M10,M10)</f>
         <v>#REF!</v>
       </c>
       <c r="H10" t="e">
-        <f>DEC2HEX(E10*HEX2DEC(1000000) +G10*HEX2DEC(10000) +F10)</f>
+        <f t="shared" ref="H10:H41" si="3">DEC2HEX(E10*HEX2DEC(1000000) +G10*HEX2DEC(10000) +F10)</f>
         <v>#REF!</v>
       </c>
       <c r="I10" t="e">
-        <f>HEX2DEC(H10)</f>
+        <f t="shared" ref="I10:I41" si="4">HEX2DEC(H10)</f>
         <v>#REF!</v>
       </c>
       <c r="K10">
-        <f>IF(Q10&lt;&gt;"",Q10*116+$B$3,IF(R10&lt;&gt;"",R10*116+$B$3,IF(T10&lt;&gt;"",T10*68+$B$5,"")))</f>
+        <f t="shared" ref="K10:K36" si="5">IF(Q10&lt;&gt;"",Q10*116+$B$3,IF(R10&lt;&gt;"",R10*116+$B$3,IF(T10&lt;&gt;"",T10*68+$B$5,"")))</f>
         <v>523095</v>
       </c>
       <c r="L10">
-        <f>IF(J10&lt;&gt;"",J10,K10)</f>
+        <f t="shared" ref="L10:L41" si="6">IF(J10&lt;&gt;"",J10,K10)</f>
         <v>523095</v>
       </c>
       <c r="O10" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="S10" t="s">
         <v>38</v>
@@ -1506,35 +1489,35 @@
         <v>12</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(P11="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11" s="1" t="e">
-        <f>IF(L11&lt;&gt;"",FLOOR((L11-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G11" s="1" t="e">
-        <f>IF(MOD(L11-$B$6,2)=1,8+M11,M11)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H11" t="e">
-        <f>DEC2HEX(E11*HEX2DEC(1000000) +G11*HEX2DEC(10000) +F11)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I11" t="e">
-        <f>HEX2DEC(H11)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K11">
-        <f>IF(Q11&lt;&gt;"",Q11*116+$B$3,IF(R11&lt;&gt;"",R11*116+$B$3,IF(T11&lt;&gt;"",T11*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523163</v>
       </c>
       <c r="L11">
-        <f>IF(J11&lt;&gt;"",J11,K11)</f>
+        <f t="shared" si="6"/>
         <v>523163</v>
       </c>
       <c r="O11" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="S11" t="s">
         <v>38</v>
@@ -1543,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="U11" t="str">
-        <f>IF(S11="*",D11&amp;" : INT := "&amp;(T11+1)&amp;";")</f>
+        <f t="shared" ref="U11:U14" si="7">IF(S11="*",D11&amp;" : INT := "&amp;(T11+1)&amp;";")</f>
         <v>H2Green : INT := 2;</v>
       </c>
     </row>
@@ -1561,35 +1544,35 @@
         <v>13</v>
       </c>
       <c r="E12" s="1">
-        <f>IF(P12="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12" s="1" t="e">
-        <f>IF(L12&lt;&gt;"",FLOOR((L12-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G12" s="1" t="e">
-        <f>IF(MOD(L12-$B$6,2)=1,8+M12,M12)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H12" t="e">
-        <f>DEC2HEX(E12*HEX2DEC(1000000) +G12*HEX2DEC(10000) +F12)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I12" t="e">
-        <f>HEX2DEC(H12)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K12">
-        <f>IF(Q12&lt;&gt;"",Q12*116+$B$3,IF(R12&lt;&gt;"",R12*116+$B$3,IF(T12&lt;&gt;"",T12*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523231</v>
       </c>
       <c r="L12">
-        <f>IF(J12&lt;&gt;"",J12,K12)</f>
+        <f t="shared" si="6"/>
         <v>523231</v>
       </c>
       <c r="O12" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="S12" t="s">
         <v>38</v>
@@ -1598,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="U12" t="str">
-        <f>IF(S12="*",D12&amp;" : INT := "&amp;(T12+1)&amp;";")</f>
+        <f t="shared" si="7"/>
         <v>H3Orange : INT := 3;</v>
       </c>
     </row>
@@ -1616,35 +1599,35 @@
         <v>14</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(P13="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13" s="1" t="e">
-        <f>IF(L13&lt;&gt;"",FLOOR((L13-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G13" s="1" t="e">
-        <f>IF(MOD(L13-$B$6,2)=1,8+M13,M13)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H13" t="e">
-        <f>DEC2HEX(E13*HEX2DEC(1000000) +G13*HEX2DEC(10000) +F13)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I13" t="e">
-        <f>HEX2DEC(H13)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K13">
-        <f>IF(Q13&lt;&gt;"",Q13*116+$B$3,IF(R13&lt;&gt;"",R13*116+$B$3,IF(T13&lt;&gt;"",T13*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523299</v>
       </c>
       <c r="L13">
-        <f>IF(J13&lt;&gt;"",J13,K13)</f>
+        <f t="shared" si="6"/>
         <v>523299</v>
       </c>
       <c r="O13" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="S13" t="s">
         <v>38</v>
@@ -1653,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="U13" t="str">
-        <f>IF(S13="*",D13&amp;" : INT := "&amp;(T13+1)&amp;";")</f>
+        <f t="shared" si="7"/>
         <v>H4White : INT := 4;</v>
       </c>
     </row>
@@ -1671,35 +1654,35 @@
         <v>15</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(P14="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14" s="1" t="e">
-        <f>IF(L14&lt;&gt;"",FLOOR((L14-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G14" s="1" t="e">
-        <f>IF(MOD(L14-$B$6,2)=1,8+M14,M14)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H14" t="e">
-        <f>DEC2HEX(E14*HEX2DEC(1000000) +G14*HEX2DEC(10000) +F14)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I14" t="e">
-        <f>HEX2DEC(H14)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K14">
-        <f>IF(Q14&lt;&gt;"",Q14*116+$B$3,IF(R14&lt;&gt;"",R14*116+$B$3,IF(T14&lt;&gt;"",T14*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523367</v>
       </c>
       <c r="L14">
-        <f>IF(J14&lt;&gt;"",J14,K14)</f>
+        <f t="shared" si="6"/>
         <v>523367</v>
       </c>
       <c r="O14" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="S14" t="s">
         <v>38</v>
@@ -1708,11 +1691,11 @@
         <v>4</v>
       </c>
       <c r="U14" t="str">
-        <f>IF(S14="*",D14&amp;" : INT := "&amp;(T14+1)&amp;";")</f>
+        <f t="shared" si="7"/>
         <v>Air : INT := 5;</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1723,35 +1706,35 @@
         <v>6</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(P15="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF(L15&lt;&gt;"",FLOOR((L15-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G15" s="1" t="e">
-        <f>IF(MOD(L15-$B$6,2)=1,8+M15,M15)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H15" t="e">
-        <f>DEC2HEX(E15*HEX2DEC(1000000) +G15*HEX2DEC(10000) +F15)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I15" t="e">
-        <f>HEX2DEC(H15)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K15" t="str">
-        <f>IF(Q15&lt;&gt;"",Q15*116+$B$3,IF(R15&lt;&gt;"",R15*116+$B$3,IF(T15&lt;&gt;"",T15*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f>IF(J15&lt;&gt;"",J15,K15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1762,35 +1745,35 @@
         <v>7</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(P16="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF(L16&lt;&gt;"",FLOOR((L16-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G16" s="1" t="e">
-        <f>IF(MOD(L16-$B$6,2)=1,8+M16,M16)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H16" t="e">
-        <f>DEC2HEX(E16*HEX2DEC(1000000) +G16*HEX2DEC(10000) +F16)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I16" t="e">
-        <f>HEX2DEC(H16)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K16" t="str">
-        <f>IF(Q16&lt;&gt;"",Q16*116+$B$3,IF(R16&lt;&gt;"",R16*116+$B$3,IF(T16&lt;&gt;"",T16*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L16" t="str">
-        <f>IF(J16&lt;&gt;"",J16,K16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1801,35 +1784,35 @@
         <v>8</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(P17="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF(L17&lt;&gt;"",FLOOR((L17-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G17" s="1" t="e">
-        <f>IF(MOD(L17-$B$6,2)=1,8+M17,M17)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H17" t="e">
-        <f>DEC2HEX(E17*HEX2DEC(1000000) +G17*HEX2DEC(10000) +F17)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I17" t="e">
-        <f>HEX2DEC(H17)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K17" t="str">
-        <f>IF(Q17&lt;&gt;"",Q17*116+$B$3,IF(R17&lt;&gt;"",R17*116+$B$3,IF(T17&lt;&gt;"",T17*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f>IF(J17&lt;&gt;"",J17,K17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1843,35 +1826,35 @@
         <v>71</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(P18="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF(L18&lt;&gt;"",FLOOR((L18-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G18" s="1" t="e">
-        <f>IF(MOD(L18-$B$6,2)=1,8+M18,M18)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H18" t="e">
-        <f>DEC2HEX(E18*HEX2DEC(1000000) +G18*HEX2DEC(10000) +F18)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I18" t="e">
-        <f>HEX2DEC(H18)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K18" t="str">
-        <f>IF(Q18&lt;&gt;"",Q18*116+$B$3,IF(R18&lt;&gt;"",R18*116+$B$3,IF(T18&lt;&gt;"",T18*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L18" t="str">
-        <f>IF(J18&lt;&gt;"",J18,K18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1882,35 +1865,35 @@
         <v>10</v>
       </c>
       <c r="E19" s="1">
-        <f>IF(P19="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF(L19&lt;&gt;"",FLOOR((L19-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G19" s="1" t="e">
-        <f>IF(MOD(L19-$B$6,2)=1,8+M19,M19)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H19" t="e">
-        <f>DEC2HEX(E19*HEX2DEC(1000000) +G19*HEX2DEC(10000) +F19)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I19" t="e">
-        <f>HEX2DEC(H19)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K19" t="str">
-        <f>IF(Q19&lt;&gt;"",Q19*116+$B$3,IF(R19&lt;&gt;"",R19*116+$B$3,IF(T19&lt;&gt;"",T19*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f>IF(J19&lt;&gt;"",J19,K19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1921,35 +1904,35 @@
         <v>11</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(P20="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF(L20&lt;&gt;"",FLOOR((L20-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G20" s="1" t="e">
-        <f>IF(MOD(L20-$B$6,2)=1,8+M20,M20)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H20" t="e">
-        <f>DEC2HEX(E20*HEX2DEC(1000000) +G20*HEX2DEC(10000) +F20)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I20" t="e">
-        <f>HEX2DEC(H20)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K20" t="str">
-        <f>IF(Q20&lt;&gt;"",Q20*116+$B$3,IF(R20&lt;&gt;"",R20*116+$B$3,IF(T20&lt;&gt;"",T20*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L20" t="str">
-        <f>IF(J20&lt;&gt;"",J20,K20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11</v>
       </c>
@@ -1960,35 +1943,35 @@
         <v>12</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(P21="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF(L21&lt;&gt;"",FLOOR((L21-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G21" s="1" t="e">
-        <f>IF(MOD(L21-$B$6,2)=1,8+M21,M21)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H21" t="e">
-        <f>DEC2HEX(E21*HEX2DEC(1000000) +G21*HEX2DEC(10000) +F21)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I21" t="e">
-        <f>HEX2DEC(H21)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K21" t="str">
-        <f>IF(Q21&lt;&gt;"",Q21*116+$B$3,IF(R21&lt;&gt;"",R21*116+$B$3,IF(T21&lt;&gt;"",T21*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L21" t="str">
-        <f>IF(J21&lt;&gt;"",J21,K21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1999,35 +1982,35 @@
         <v>13</v>
       </c>
       <c r="E22" s="1">
-        <f>IF(P22="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF(L22&lt;&gt;"",FLOOR((L22-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G22" s="1" t="e">
-        <f>IF(MOD(L22-$B$6,2)=1,8+M22,M22)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H22" t="e">
-        <f>DEC2HEX(E22*HEX2DEC(1000000) +G22*HEX2DEC(10000) +F22)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I22" t="e">
-        <f>HEX2DEC(H22)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K22" t="str">
-        <f>IF(Q22&lt;&gt;"",Q22*116+$B$3,IF(R22&lt;&gt;"",R22*116+$B$3,IF(T22&lt;&gt;"",T22*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L22" t="str">
-        <f>IF(J22&lt;&gt;"",J22,K22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13</v>
       </c>
@@ -2038,35 +2021,35 @@
         <v>14</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(P23="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF(L23&lt;&gt;"",FLOOR((L23-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G23" s="1" t="e">
-        <f>IF(MOD(L23-$B$6,2)=1,8+M23,M23)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H23" t="e">
-        <f>DEC2HEX(E23*HEX2DEC(1000000) +G23*HEX2DEC(10000) +F23)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I23" t="e">
-        <f>HEX2DEC(H23)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K23" t="str">
-        <f>IF(Q23&lt;&gt;"",Q23*116+$B$3,IF(R23&lt;&gt;"",R23*116+$B$3,IF(T23&lt;&gt;"",T23*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L23" t="str">
-        <f>IF(J23&lt;&gt;"",J23,K23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
@@ -2077,38 +2060,38 @@
         <v>15</v>
       </c>
       <c r="E24" s="1">
-        <f>IF(P24="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF(L24&lt;&gt;"",FLOOR((L24-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G24" s="1" t="e">
-        <f>IF(MOD(L24-$B$6,2)=1,8+M24,M24)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H24" t="e">
-        <f>DEC2HEX(E24*HEX2DEC(1000000) +G24*HEX2DEC(10000) +F24)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I24" t="e">
-        <f>HEX2DEC(H24)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K24" t="str">
-        <f>IF(Q24&lt;&gt;"",Q24*116+$B$3,IF(R24&lt;&gt;"",R24*116+$B$3,IF(T24&lt;&gt;"",T24*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f>IF(J24&lt;&gt;"",J24,K24)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>15</v>
       </c>
@@ -2119,31 +2102,31 @@
         <v>16</v>
       </c>
       <c r="E25" s="1">
-        <f>IF(P25="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF(L25&lt;&gt;"",FLOOR((L25-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G25" s="1" t="e">
-        <f>IF(MOD(L25-$B$6,2)=1,8+M25,M25)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H25" t="e">
-        <f>DEC2HEX(E25*HEX2DEC(1000000) +G25*HEX2DEC(10000) +F25)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I25" t="e">
-        <f>HEX2DEC(H25)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K25" t="str">
-        <f>IF(Q25&lt;&gt;"",Q25*116+$B$3,IF(R25&lt;&gt;"",R25*116+$B$3,IF(T25&lt;&gt;"",T25*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f>IF(J25&lt;&gt;"",J25,K25)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2161,35 +2144,35 @@
         <v>72</v>
       </c>
       <c r="E26" s="1">
-        <f>IF(P26="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F26" s="1" t="e">
-        <f>IF(L26&lt;&gt;"",FLOOR((L26-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G26" s="1" t="e">
-        <f>IF(MOD(L26-$B$6,2)=1,8+M26,M26)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H26" t="e">
-        <f>DEC2HEX(E26*HEX2DEC(1000000) +G26*HEX2DEC(10000) +F26)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I26" t="e">
-        <f>HEX2DEC(H26)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K26">
-        <f>IF(Q26&lt;&gt;"",Q26*116+$B$3,IF(R26&lt;&gt;"",R26*116+$B$3,IF(T26&lt;&gt;"",T26*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523435</v>
       </c>
       <c r="L26">
-        <f>IF(J26&lt;&gt;"",J26,K26)</f>
+        <f t="shared" si="6"/>
         <v>523435</v>
       </c>
       <c r="O26" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="S26" t="s">
         <v>38</v>
@@ -2198,7 +2181,7 @@
         <v>5</v>
       </c>
       <c r="U26" t="str">
-        <f>IF(S26="*",D26&amp;" : INT := "&amp;(T26+1)&amp;";")</f>
+        <f t="shared" ref="U26:U28" si="8">IF(S26="*",D26&amp;" : INT := "&amp;(T26+1)&amp;";")</f>
         <v>SfA01 : INT := 6;</v>
       </c>
     </row>
@@ -2216,35 +2199,35 @@
         <v>73</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(P27="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27" s="1" t="e">
-        <f>IF(L27&lt;&gt;"",FLOOR((L27-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G27" s="1" t="e">
-        <f>IF(MOD(L27-$B$6,2)=1,8+M27,M27)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H27" t="e">
-        <f>DEC2HEX(E27*HEX2DEC(1000000) +G27*HEX2DEC(10000) +F27)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I27" t="e">
-        <f>HEX2DEC(H27)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K27">
-        <f>IF(Q27&lt;&gt;"",Q27*116+$B$3,IF(R27&lt;&gt;"",R27*116+$B$3,IF(T27&lt;&gt;"",T27*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523503</v>
       </c>
       <c r="L27">
-        <f>IF(J27&lt;&gt;"",J27,K27)</f>
+        <f t="shared" si="6"/>
         <v>523503</v>
       </c>
       <c r="O27" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="S27" t="s">
         <v>38</v>
@@ -2253,7 +2236,7 @@
         <v>6</v>
       </c>
       <c r="U27" t="str">
-        <f>IF(S27="*",D27&amp;" : INT := "&amp;(T27+1)&amp;";")</f>
+        <f t="shared" si="8"/>
         <v>SfA02 : INT := 7;</v>
       </c>
     </row>
@@ -2271,35 +2254,35 @@
         <v>74</v>
       </c>
       <c r="E28" s="1">
-        <f>IF(P28="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28" s="1" t="e">
-        <f>IF(L28&lt;&gt;"",FLOOR((L28-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G28" s="1" t="e">
-        <f>IF(MOD(L28-$B$6,2)=1,8+M28,M28)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H28" t="e">
-        <f>DEC2HEX(E28*HEX2DEC(1000000) +G28*HEX2DEC(10000) +F28)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I28" t="e">
-        <f>HEX2DEC(H28)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K28">
-        <f>IF(Q28&lt;&gt;"",Q28*116+$B$3,IF(R28&lt;&gt;"",R28*116+$B$3,IF(T28&lt;&gt;"",T28*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523571</v>
       </c>
       <c r="L28">
-        <f>IF(J28&lt;&gt;"",J28,K28)</f>
+        <f t="shared" si="6"/>
         <v>523571</v>
       </c>
       <c r="O28" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="S28" t="s">
         <v>38</v>
@@ -2308,11 +2291,11 @@
         <v>7</v>
       </c>
       <c r="U28" t="str">
-        <f>IF(S28="*",D28&amp;" : INT := "&amp;(T28+1)&amp;";")</f>
+        <f t="shared" si="8"/>
         <v>SfA03 : INT := 8;</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>40</v>
       </c>
@@ -2323,35 +2306,35 @@
         <v>4</v>
       </c>
       <c r="E29" s="1">
-        <f>IF(P29="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF(L29&lt;&gt;"",FLOOR((L29-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G29" s="1" t="e">
-        <f>IF(MOD(L29-$B$6,2)=1,8+M29,M29)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H29" t="e">
-        <f>DEC2HEX(E29*HEX2DEC(1000000) +G29*HEX2DEC(10000) +F29)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I29" t="e">
-        <f>HEX2DEC(H29)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K29" t="str">
-        <f>IF(Q29&lt;&gt;"",Q29*116+$B$3,IF(R29&lt;&gt;"",R29*116+$B$3,IF(T29&lt;&gt;"",T29*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f>IF(J29&lt;&gt;"",J29,K29)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>41</v>
       </c>
@@ -2362,35 +2345,35 @@
         <v>5</v>
       </c>
       <c r="E30" s="1">
-        <f>IF(P30="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF(L30&lt;&gt;"",FLOOR((L30-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G30" s="1" t="e">
-        <f>IF(MOD(L30-$B$6,2)=1,8+M30,M30)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H30" t="e">
-        <f>DEC2HEX(E30*HEX2DEC(1000000) +G30*HEX2DEC(10000) +F30)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I30" t="e">
-        <f>HEX2DEC(H30)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K30" t="str">
-        <f>IF(Q30&lt;&gt;"",Q30*116+$B$3,IF(R30&lt;&gt;"",R30*116+$B$3,IF(T30&lt;&gt;"",T30*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L30" t="str">
-        <f>IF(J30&lt;&gt;"",J30,K30)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>42</v>
       </c>
@@ -2401,35 +2384,35 @@
         <v>6</v>
       </c>
       <c r="E31" s="1">
-        <f>IF(P31="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF(L31&lt;&gt;"",FLOOR((L31-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G31" s="1" t="e">
-        <f>IF(MOD(L31-$B$6,2)=1,8+M31,M31)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H31" t="e">
-        <f>DEC2HEX(E31*HEX2DEC(1000000) +G31*HEX2DEC(10000) +F31)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" t="e">
-        <f>HEX2DEC(H31)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K31" t="str">
-        <f>IF(Q31&lt;&gt;"",Q31*116+$B$3,IF(R31&lt;&gt;"",R31*116+$B$3,IF(T31&lt;&gt;"",T31*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L31" t="str">
-        <f>IF(J31&lt;&gt;"",J31,K31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>43</v>
       </c>
@@ -2440,35 +2423,35 @@
         <v>7</v>
       </c>
       <c r="E32" s="1">
-        <f>IF(P32="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF(L32&lt;&gt;"",FLOOR((L32-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G32" s="1" t="e">
-        <f>IF(MOD(L32-$B$6,2)=1,8+M32,M32)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H32" t="e">
-        <f>DEC2HEX(E32*HEX2DEC(1000000) +G32*HEX2DEC(10000) +F32)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I32" t="e">
-        <f>HEX2DEC(H32)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K32" t="str">
-        <f>IF(Q32&lt;&gt;"",Q32*116+$B$3,IF(R32&lt;&gt;"",R32*116+$B$3,IF(T32&lt;&gt;"",T32*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L32" t="str">
-        <f>IF(J32&lt;&gt;"",J32,K32)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>44</v>
       </c>
@@ -2479,31 +2462,31 @@
         <v>8</v>
       </c>
       <c r="E33" s="1">
-        <f>IF(P33="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF(L33&lt;&gt;"",FLOOR((L33-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G33" s="1" t="e">
-        <f>IF(MOD(L33-$B$6,2)=1,8+M33,M33)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H33" t="e">
-        <f>DEC2HEX(E33*HEX2DEC(1000000) +G33*HEX2DEC(10000) +F33)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I33" t="e">
-        <f>HEX2DEC(H33)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K33" t="str">
-        <f>IF(Q33&lt;&gt;"",Q33*116+$B$3,IF(R33&lt;&gt;"",R33*116+$B$3,IF(T33&lt;&gt;"",T33*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f>IF(J33&lt;&gt;"",J33,K33)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2521,35 +2504,35 @@
         <v>75</v>
       </c>
       <c r="E34" s="1">
-        <f>IF(P34="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F34" s="1" t="e">
-        <f>IF(L34&lt;&gt;"",FLOOR((L34-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G34" s="1" t="e">
-        <f>IF(MOD(L34-$B$6,2)=1,8+M34,M34)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H34" t="e">
-        <f>DEC2HEX(E34*HEX2DEC(1000000) +G34*HEX2DEC(10000) +F34)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I34" t="e">
-        <f>HEX2DEC(H34)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K34">
-        <f>IF(Q34&lt;&gt;"",Q34*116+$B$3,IF(R34&lt;&gt;"",R34*116+$B$3,IF(T34&lt;&gt;"",T34*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523639</v>
       </c>
       <c r="L34">
-        <f>IF(J34&lt;&gt;"",J34,K34)</f>
+        <f t="shared" si="6"/>
         <v>523639</v>
       </c>
       <c r="O34" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="S34" t="s">
         <v>38</v>
@@ -2558,7 +2541,7 @@
         <v>8</v>
       </c>
       <c r="U34" t="str">
-        <f>IF(S34="*",D34&amp;" : INT := "&amp;(T34+1)&amp;";")</f>
+        <f t="shared" ref="U34:U36" si="9">IF(S34="*",D34&amp;" : INT := "&amp;(T34+1)&amp;";")</f>
         <v>SpA01 : INT := 9;</v>
       </c>
     </row>
@@ -2576,35 +2559,35 @@
         <v>76</v>
       </c>
       <c r="E35" s="1">
-        <f>IF(P35="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F35" s="1" t="e">
-        <f>IF(L35&lt;&gt;"",FLOOR((L35-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G35" s="1" t="e">
-        <f>IF(MOD(L35-$B$6,2)=1,8+M35,M35)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H35" t="e">
-        <f>DEC2HEX(E35*HEX2DEC(1000000) +G35*HEX2DEC(10000) +F35)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I35" t="e">
-        <f>HEX2DEC(H35)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K35">
-        <f>IF(Q35&lt;&gt;"",Q35*116+$B$3,IF(R35&lt;&gt;"",R35*116+$B$3,IF(T35&lt;&gt;"",T35*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523707</v>
       </c>
       <c r="L35">
-        <f>IF(J35&lt;&gt;"",J35,K35)</f>
+        <f t="shared" si="6"/>
         <v>523707</v>
       </c>
       <c r="O35" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="S35" t="s">
         <v>38</v>
@@ -2613,7 +2596,7 @@
         <v>9</v>
       </c>
       <c r="U35" t="str">
-        <f>IF(S35="*",D35&amp;" : INT := "&amp;(T35+1)&amp;";")</f>
+        <f t="shared" si="9"/>
         <v>SpA02 : INT := 10;</v>
       </c>
     </row>
@@ -2631,35 +2614,35 @@
         <v>77</v>
       </c>
       <c r="E36" s="1">
-        <f>IF(P36="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F36" s="1" t="e">
-        <f>IF(L36&lt;&gt;"",FLOOR((L36-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G36" s="1" t="e">
-        <f>IF(MOD(L36-$B$6,2)=1,8+M36,M36)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H36" t="e">
-        <f>DEC2HEX(E36*HEX2DEC(1000000) +G36*HEX2DEC(10000) +F36)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I36" t="e">
-        <f>HEX2DEC(H36)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K36">
-        <f>IF(Q36&lt;&gt;"",Q36*116+$B$3,IF(R36&lt;&gt;"",R36*116+$B$3,IF(T36&lt;&gt;"",T36*68+$B$5,"")))</f>
+        <f t="shared" si="5"/>
         <v>523775</v>
       </c>
       <c r="L36">
-        <f>IF(J36&lt;&gt;"",J36,K36)</f>
+        <f t="shared" si="6"/>
         <v>523775</v>
       </c>
       <c r="O36" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="S36" t="s">
         <v>38</v>
@@ -2668,11 +2651,11 @@
         <v>10</v>
       </c>
       <c r="U36" t="str">
-        <f>IF(S36="*",D36&amp;" : INT := "&amp;(T36+1)&amp;";")</f>
+        <f t="shared" si="9"/>
         <v>SpA03 : INT := 11;</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2686,23 +2669,23 @@
         <v>78</v>
       </c>
       <c r="E37" s="1">
-        <f>IF(P37="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F37" s="1" t="e">
-        <f>IF(L37&lt;&gt;"",FLOOR((L37-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G37" s="1" t="e">
-        <f>IF(MOD(L37-$B$6,2)=1,8+M37,M37)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H37" t="e">
-        <f>DEC2HEX(E37*HEX2DEC(1000000) +G37*HEX2DEC(10000) +F37)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I37" t="e">
-        <f>HEX2DEC(H37)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K37">
@@ -2710,11 +2693,11 @@
         <v>521364</v>
       </c>
       <c r="L37">
-        <f>IF(J37&lt;&gt;"",J37,K37)</f>
+        <f t="shared" si="6"/>
         <v>521364</v>
       </c>
       <c r="O37" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="P37" t="s">
         <v>38</v>
@@ -2723,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2737,23 +2720,23 @@
         <v>79</v>
       </c>
       <c r="E38" s="1">
-        <f>IF(P38="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F38" s="1" t="e">
-        <f>IF(L38&lt;&gt;"",FLOOR((L38-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G38" s="1" t="e">
-        <f>IF(MOD(L38-$B$6,2)=1,8+M38,M38)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H38" t="e">
-        <f>DEC2HEX(E38*HEX2DEC(1000000) +G38*HEX2DEC(10000) +F38)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I38" t="e">
-        <f>HEX2DEC(H38)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K38">
@@ -2761,11 +2744,11 @@
         <v>521480</v>
       </c>
       <c r="L38">
-        <f>IF(J38&lt;&gt;"",J38,K38)</f>
+        <f t="shared" si="6"/>
         <v>521480</v>
       </c>
       <c r="O38" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="P38" t="s">
         <v>38</v>
@@ -2774,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>45</v>
       </c>
@@ -2788,23 +2771,23 @@
         <v>80</v>
       </c>
       <c r="E39" s="1">
-        <f>IF(P39="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F39" s="1" t="e">
-        <f>IF(L39&lt;&gt;"",FLOOR((L39-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G39" s="1" t="e">
-        <f>IF(MOD(L39-$B$6,2)=1,8+M39,M39)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H39" t="e">
-        <f>DEC2HEX(E39*HEX2DEC(1000000) +G39*HEX2DEC(10000) +F39)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I39" t="e">
-        <f>HEX2DEC(H39)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K39">
@@ -2812,11 +2795,11 @@
         <v>521596</v>
       </c>
       <c r="L39">
-        <f>IF(J39&lt;&gt;"",J39,K39)</f>
+        <f t="shared" si="6"/>
         <v>521596</v>
       </c>
       <c r="O39" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="P39" t="s">
         <v>38</v>
@@ -2825,7 +2808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>46</v>
       </c>
@@ -2836,26 +2819,26 @@
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="E40" s="1" t="e">
         <f>IF(#REF!="",$B$2,$B$2)</f>
         <v>#REF!</v>
       </c>
       <c r="F40" s="1" t="e">
-        <f>IF(L40&lt;&gt;"",FLOOR((L40-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G40" s="1" t="e">
-        <f>IF(MOD(L40-$B$6,2)=1,8+M40,M40)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H40" t="e">
-        <f>DEC2HEX(E40*HEX2DEC(1000000) +G40*HEX2DEC(10000) +F40)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I40" t="e">
-        <f>HEX2DEC(H40)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K40" t="e">
@@ -2863,11 +2846,11 @@
         <v>#REF!</v>
       </c>
       <c r="L40" t="e">
-        <f>IF(J40&lt;&gt;"",J40,K40)</f>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="O40" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="P40" t="s">
         <v>38</v>
@@ -2876,7 +2859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>47</v>
       </c>
@@ -2887,26 +2870,26 @@
         <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E41" s="1" t="e">
         <f>IF(#REF!="",$B$2,$B$2)</f>
         <v>#REF!</v>
       </c>
       <c r="F41" s="1" t="e">
-        <f>IF(L41&lt;&gt;"",FLOOR((L41-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="G41" s="1" t="e">
-        <f>IF(MOD(L41-$B$6,2)=1,8+M41,M41)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="H41" t="e">
-        <f>DEC2HEX(E41*HEX2DEC(1000000) +G41*HEX2DEC(10000) +F41)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="I41" t="e">
-        <f>HEX2DEC(H41)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="K41" t="e">
@@ -2914,11 +2897,11 @@
         <v>#REF!</v>
       </c>
       <c r="L41" t="e">
-        <f>IF(J41&lt;&gt;"",J41,K41)</f>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="O41" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="P41" t="s">
         <v>38</v>
@@ -2941,23 +2924,23 @@
         <v>92</v>
       </c>
       <c r="E42" s="1">
-        <f>IF(P42="",$B$2,$B$2)</f>
+        <f t="shared" ref="E42:E58" si="10">IF(P42="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F42" s="1" t="e">
-        <f>IF(L42&lt;&gt;"",FLOOR((L42-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F42:F58" si="11">IF(L42&lt;&gt;"",FLOOR((L42-MIN(L:L))/2,1),"")</f>
         <v>#REF!</v>
       </c>
       <c r="G42" s="1" t="e">
-        <f>IF(MOD(L42-$B$6,2)=1,8+M42,M42)</f>
+        <f t="shared" ref="G42:G58" si="12">IF(MOD(L42-$B$6,2)=1,8+M42,M42)</f>
         <v>#REF!</v>
       </c>
       <c r="H42" t="e">
-        <f>DEC2HEX(E42*HEX2DEC(1000000) +G42*HEX2DEC(10000) +F42)</f>
+        <f t="shared" ref="H42:H73" si="13">DEC2HEX(E42*HEX2DEC(1000000) +G42*HEX2DEC(10000) +F42)</f>
         <v>#REF!</v>
       </c>
       <c r="I42" t="e">
-        <f>HEX2DEC(H42)</f>
+        <f t="shared" ref="I42:I73" si="14">HEX2DEC(H42)</f>
         <v>#REF!</v>
       </c>
       <c r="K42">
@@ -2965,11 +2948,11 @@
         <v>523843</v>
       </c>
       <c r="L42">
-        <f>IF(J42&lt;&gt;"",J42,K42)</f>
+        <f t="shared" ref="L42:L58" si="15">IF(J42&lt;&gt;"",J42,K42)</f>
         <v>523843</v>
       </c>
       <c r="O42" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="S42" t="s">
         <v>38</v>
@@ -2982,7 +2965,7 @@
         <v>CSp1 : INT := 12;</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>60</v>
       </c>
@@ -2996,23 +2979,23 @@
         <v>93</v>
       </c>
       <c r="E43" s="1">
-        <f>IF(P43="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F43" s="1" t="e">
-        <f>IF(L43&lt;&gt;"",FLOOR((L43-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="G43" s="1" t="e">
-        <f>IF(MOD(L43-$B$6,2)=1,8+M43,M43)</f>
+        <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
       <c r="H43" t="e">
-        <f>DEC2HEX(E43*HEX2DEC(1000000) +G43*HEX2DEC(10000) +F43)</f>
+        <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="I43" t="e">
-        <f>HEX2DEC(H43)</f>
+        <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
       <c r="K43">
@@ -3020,11 +3003,11 @@
         <v>522060</v>
       </c>
       <c r="L43">
-        <f>IF(J43&lt;&gt;"",J43,K43)</f>
+        <f t="shared" si="15"/>
         <v>522060</v>
       </c>
       <c r="O43" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="P43" t="s">
         <v>38</v>
@@ -3033,7 +3016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>61</v>
       </c>
@@ -3047,23 +3030,23 @@
         <v>94</v>
       </c>
       <c r="E44" s="1">
-        <f>IF(P44="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F44" s="1" t="e">
-        <f>IF(L44&lt;&gt;"",FLOOR((L44-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="G44" s="1" t="e">
-        <f>IF(MOD(L44-$B$6,2)=1,8+M44,M44)</f>
+        <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
       <c r="H44" t="e">
-        <f>DEC2HEX(E44*HEX2DEC(1000000) +G44*HEX2DEC(10000) +F44)</f>
+        <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="I44" t="e">
-        <f>HEX2DEC(H44)</f>
+        <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
       <c r="K44">
@@ -3071,11 +3054,11 @@
         <v>522172</v>
       </c>
       <c r="L44">
-        <f>IF(J44&lt;&gt;"",J44,K44)</f>
+        <f t="shared" si="15"/>
         <v>522172</v>
       </c>
       <c r="O44" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="P44" t="s">
         <v>38</v>
@@ -3084,7 +3067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>62</v>
       </c>
@@ -3098,23 +3081,23 @@
         <v>95</v>
       </c>
       <c r="E45" s="1">
-        <f>IF(P45="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F45" s="1" t="e">
-        <f>IF(L45&lt;&gt;"",FLOOR((L45-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="G45" s="1" t="e">
-        <f>IF(MOD(L45-$B$6,2)=1,8+M45,M45)</f>
+        <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
       <c r="H45" t="e">
-        <f>DEC2HEX(E45*HEX2DEC(1000000) +G45*HEX2DEC(10000) +F45)</f>
+        <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="I45" t="e">
-        <f>HEX2DEC(H45)</f>
+        <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
       <c r="K45">
@@ -3122,11 +3105,11 @@
         <v>522176</v>
       </c>
       <c r="L45">
-        <f>IF(J45&lt;&gt;"",J45,K45)</f>
+        <f t="shared" si="15"/>
         <v>522176</v>
       </c>
       <c r="O45" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="P45" t="s">
         <v>38</v>
@@ -3135,7 +3118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>48</v>
       </c>
@@ -3146,35 +3129,35 @@
         <v>5</v>
       </c>
       <c r="E46" s="1">
-        <f>IF(P46="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>IF(L46&lt;&gt;"",FLOOR((L46-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G46" s="1" t="e">
-        <f>IF(MOD(L46-$B$6,2)=1,8+M46,M46)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H46" t="e">
-        <f>DEC2HEX(E46*HEX2DEC(1000000) +G46*HEX2DEC(10000) +F46)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I46" t="e">
-        <f>HEX2DEC(H46)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K46" t="str">
-        <f>IF(Q46&lt;&gt;"",Q46*116+$B$3,IF(R46&lt;&gt;"",R46*116+$B$3,IF(T46&lt;&gt;"",T46*68+$B$5,"")))</f>
+        <f t="shared" ref="K46:K58" si="16">IF(Q46&lt;&gt;"",Q46*116+$B$3,IF(R46&lt;&gt;"",R46*116+$B$3,IF(T46&lt;&gt;"",T46*68+$B$5,"")))</f>
         <v/>
       </c>
       <c r="L46" t="str">
-        <f>IF(J46&lt;&gt;"",J46,K46)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>49</v>
       </c>
@@ -3185,35 +3168,35 @@
         <v>6</v>
       </c>
       <c r="E47" s="1">
-        <f>IF(P47="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>IF(L47&lt;&gt;"",FLOOR((L47-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G47" s="1" t="e">
-        <f>IF(MOD(L47-$B$6,2)=1,8+M47,M47)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H47" t="e">
-        <f>DEC2HEX(E47*HEX2DEC(1000000) +G47*HEX2DEC(10000) +F47)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I47" t="e">
-        <f>HEX2DEC(H47)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K47" t="str">
-        <f>IF(Q47&lt;&gt;"",Q47*116+$B$3,IF(R47&lt;&gt;"",R47*116+$B$3,IF(T47&lt;&gt;"",T47*68+$B$5,"")))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L47" t="str">
-        <f>IF(J47&lt;&gt;"",J47,K47)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>50</v>
       </c>
@@ -3224,35 +3207,35 @@
         <v>7</v>
       </c>
       <c r="E48" s="1">
-        <f>IF(P48="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>IF(L48&lt;&gt;"",FLOOR((L48-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G48" s="1" t="e">
-        <f>IF(MOD(L48-$B$6,2)=1,8+M48,M48)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H48" t="e">
-        <f>DEC2HEX(E48*HEX2DEC(1000000) +G48*HEX2DEC(10000) +F48)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I48" t="e">
-        <f>HEX2DEC(H48)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K48" t="str">
-        <f>IF(Q48&lt;&gt;"",Q48*116+$B$3,IF(R48&lt;&gt;"",R48*116+$B$3,IF(T48&lt;&gt;"",T48*68+$B$5,"")))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L48" t="str">
-        <f>IF(J48&lt;&gt;"",J48,K48)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>51</v>
       </c>
@@ -3263,35 +3246,35 @@
         <v>8</v>
       </c>
       <c r="E49" s="1">
-        <f>IF(P49="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>IF(L49&lt;&gt;"",FLOOR((L49-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G49" s="1" t="e">
-        <f>IF(MOD(L49-$B$6,2)=1,8+M49,M49)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H49" t="e">
-        <f>DEC2HEX(E49*HEX2DEC(1000000) +G49*HEX2DEC(10000) +F49)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I49" t="e">
-        <f>HEX2DEC(H49)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K49" t="str">
-        <f>IF(Q49&lt;&gt;"",Q49*116+$B$3,IF(R49&lt;&gt;"",R49*116+$B$3,IF(T49&lt;&gt;"",T49*68+$B$5,"")))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L49" t="str">
-        <f>IF(J49&lt;&gt;"",J49,K49)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>52</v>
       </c>
@@ -3302,35 +3285,35 @@
         <v>9</v>
       </c>
       <c r="E50" s="1">
-        <f>IF(P50="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>IF(L50&lt;&gt;"",FLOOR((L50-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G50" s="1" t="e">
-        <f>IF(MOD(L50-$B$6,2)=1,8+M50,M50)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H50" t="e">
-        <f>DEC2HEX(E50*HEX2DEC(1000000) +G50*HEX2DEC(10000) +F50)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I50" t="e">
-        <f>HEX2DEC(H50)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K50" t="str">
-        <f>IF(Q50&lt;&gt;"",Q50*116+$B$3,IF(R50&lt;&gt;"",R50*116+$B$3,IF(T50&lt;&gt;"",T50*68+$B$5,"")))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L50" t="str">
-        <f>IF(J50&lt;&gt;"",J50,K50)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>53</v>
       </c>
@@ -3341,35 +3324,35 @@
         <v>10</v>
       </c>
       <c r="E51" s="1">
-        <f>IF(P51="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>IF(L51&lt;&gt;"",FLOOR((L51-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G51" s="1" t="e">
-        <f>IF(MOD(L51-$B$6,2)=1,8+M51,M51)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H51" t="e">
-        <f>DEC2HEX(E51*HEX2DEC(1000000) +G51*HEX2DEC(10000) +F51)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I51" t="e">
-        <f>HEX2DEC(H51)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K51" t="str">
-        <f>IF(Q51&lt;&gt;"",Q51*116+$B$3,IF(R51&lt;&gt;"",R51*116+$B$3,IF(T51&lt;&gt;"",T51*68+$B$5,"")))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L51" t="str">
-        <f>IF(J51&lt;&gt;"",J51,K51)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>54</v>
       </c>
@@ -3380,35 +3363,35 @@
         <v>11</v>
       </c>
       <c r="E52" s="1">
-        <f>IF(P52="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f>IF(L52&lt;&gt;"",FLOOR((L52-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G52" s="1" t="e">
-        <f>IF(MOD(L52-$B$6,2)=1,8+M52,M52)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H52" t="e">
-        <f>DEC2HEX(E52*HEX2DEC(1000000) +G52*HEX2DEC(10000) +F52)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I52" t="e">
-        <f>HEX2DEC(H52)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K52" t="str">
-        <f>IF(Q52&lt;&gt;"",Q52*116+$B$3,IF(R52&lt;&gt;"",R52*116+$B$3,IF(T52&lt;&gt;"",T52*68+$B$5,"")))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L52" t="str">
-        <f>IF(J52&lt;&gt;"",J52,K52)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>55</v>
       </c>
@@ -3419,35 +3402,35 @@
         <v>12</v>
       </c>
       <c r="E53" s="1">
-        <f>IF(P53="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>IF(L53&lt;&gt;"",FLOOR((L53-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G53" s="1" t="e">
-        <f>IF(MOD(L53-$B$6,2)=1,8+M53,M53)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H53" t="e">
-        <f>DEC2HEX(E53*HEX2DEC(1000000) +G53*HEX2DEC(10000) +F53)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I53" t="e">
-        <f>HEX2DEC(H53)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K53" t="str">
-        <f>IF(Q53&lt;&gt;"",Q53*116+$B$3,IF(R53&lt;&gt;"",R53*116+$B$3,IF(T53&lt;&gt;"",T53*68+$B$5,"")))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L53" t="str">
-        <f>IF(J53&lt;&gt;"",J53,K53)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>56</v>
       </c>
@@ -3458,35 +3441,35 @@
         <v>13</v>
       </c>
       <c r="E54" s="1">
-        <f>IF(P54="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f>IF(L54&lt;&gt;"",FLOOR((L54-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G54" s="1" t="e">
-        <f>IF(MOD(L54-$B$6,2)=1,8+M54,M54)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H54" t="e">
-        <f>DEC2HEX(E54*HEX2DEC(1000000) +G54*HEX2DEC(10000) +F54)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I54" t="e">
-        <f>HEX2DEC(H54)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K54" t="str">
-        <f>IF(Q54&lt;&gt;"",Q54*116+$B$3,IF(R54&lt;&gt;"",R54*116+$B$3,IF(T54&lt;&gt;"",T54*68+$B$5,"")))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L54" t="str">
-        <f>IF(J54&lt;&gt;"",J54,K54)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>57</v>
       </c>
@@ -3497,35 +3480,35 @@
         <v>14</v>
       </c>
       <c r="E55" s="1">
-        <f>IF(P55="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f>IF(L55&lt;&gt;"",FLOOR((L55-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G55" s="1" t="e">
-        <f>IF(MOD(L55-$B$6,2)=1,8+M55,M55)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H55" t="e">
-        <f>DEC2HEX(E55*HEX2DEC(1000000) +G55*HEX2DEC(10000) +F55)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I55" t="e">
-        <f>HEX2DEC(H55)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K55" t="str">
-        <f>IF(Q55&lt;&gt;"",Q55*116+$B$3,IF(R55&lt;&gt;"",R55*116+$B$3,IF(T55&lt;&gt;"",T55*68+$B$5,"")))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L55" t="str">
-        <f>IF(J55&lt;&gt;"",J55,K55)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>58</v>
       </c>
@@ -3536,35 +3519,35 @@
         <v>15</v>
       </c>
       <c r="E56" s="1">
-        <f>IF(P56="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>IF(L56&lt;&gt;"",FLOOR((L56-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G56" s="1" t="e">
-        <f>IF(MOD(L56-$B$6,2)=1,8+M56,M56)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H56" t="e">
-        <f>DEC2HEX(E56*HEX2DEC(1000000) +G56*HEX2DEC(10000) +F56)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I56" t="e">
-        <f>HEX2DEC(H56)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K56" t="str">
-        <f>IF(Q56&lt;&gt;"",Q56*116+$B$3,IF(R56&lt;&gt;"",R56*116+$B$3,IF(T56&lt;&gt;"",T56*68+$B$5,"")))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L56" t="str">
-        <f>IF(J56&lt;&gt;"",J56,K56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>59</v>
       </c>
@@ -3575,35 +3558,35 @@
         <v>16</v>
       </c>
       <c r="E57" s="1">
-        <f>IF(P57="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>IF(L57&lt;&gt;"",FLOOR((L57-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G57" s="1" t="e">
-        <f>IF(MOD(L57-$B$6,2)=1,8+M57,M57)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H57" t="e">
-        <f>DEC2HEX(E57*HEX2DEC(1000000) +G57*HEX2DEC(10000) +F57)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I57" t="e">
-        <f>HEX2DEC(H57)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K57" t="str">
-        <f>IF(Q57&lt;&gt;"",Q57*116+$B$3,IF(R57&lt;&gt;"",R57*116+$B$3,IF(T57&lt;&gt;"",T57*68+$B$5,"")))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L57" t="str">
-        <f>IF(J57&lt;&gt;"",J57,K57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>71</v>
       </c>
@@ -3614,38 +3597,38 @@
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E58" s="1">
-        <f>IF(P58="",$B$2,$B$2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F58" s="1" t="e">
-        <f>IF(L58&lt;&gt;"",FLOOR((L58-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="G58" s="1" t="e">
-        <f>IF(MOD(L58-$B$6,2)=1,8+M58,M58)</f>
+        <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
       <c r="H58" t="e">
-        <f>DEC2HEX(E58*HEX2DEC(1000000) +G58*HEX2DEC(10000) +F58)</f>
+        <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="I58" t="e">
-        <f>HEX2DEC(H58)</f>
+        <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
       <c r="K58">
-        <f>IF(Q58&lt;&gt;"",Q58*116+$B$3,IF(R58&lt;&gt;"",R58*116+$B$3,IF(T58&lt;&gt;"",T58*68+$B$5,"")))</f>
+        <f t="shared" si="16"/>
         <v>521708</v>
       </c>
       <c r="L58">
-        <f>IF(J58&lt;&gt;"",J58,K58)</f>
+        <f t="shared" si="15"/>
         <v>521708</v>
       </c>
       <c r="O58" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="P58" t="s">
         <v>38</v>
@@ -3654,7 +3637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>68</v>
       </c>
@@ -3665,38 +3648,38 @@
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" ref="E59:E73" si="0">IF(P59="",$B$2,$B$2)</f>
+        <f t="shared" ref="E59:E73" si="17">IF(P59="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F59" s="1" t="e">
-        <f t="shared" ref="F59:F73" si="1">IF(L59&lt;&gt;"",FLOOR((L59-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F59:F73" si="18">IF(L59&lt;&gt;"",FLOOR((L59-MIN(L:L))/2,1),"")</f>
         <v>#REF!</v>
       </c>
       <c r="G59" s="1" t="e">
-        <f t="shared" ref="G59:G73" si="2">IF(MOD(L59-$B$6,2)=1,8+M59,M59)</f>
+        <f t="shared" ref="G59:G73" si="19">IF(MOD(L59-$B$6,2)=1,8+M59,M59)</f>
         <v>#REF!</v>
       </c>
       <c r="H59" t="e">
-        <f>DEC2HEX(E59*HEX2DEC(1000000) +G59*HEX2DEC(10000) +F59)</f>
+        <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="I59" t="e">
-        <f>HEX2DEC(H59)</f>
+        <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
       <c r="K59">
-        <f t="shared" ref="K59:K73" si="3">IF(Q59&lt;&gt;"",Q59*116+$B$3,IF(R59&lt;&gt;"",R59*116+$B$3,IF(T59&lt;&gt;"",T59*68+$B$5,"")))</f>
+        <f t="shared" ref="K59:K73" si="20">IF(Q59&lt;&gt;"",Q59*116+$B$3,IF(R59&lt;&gt;"",R59*116+$B$3,IF(T59&lt;&gt;"",T59*68+$B$5,"")))</f>
         <v>521708</v>
       </c>
       <c r="L59">
-        <f t="shared" ref="L59:L73" si="4">IF(J59&lt;&gt;"",J59,K59)</f>
+        <f t="shared" ref="L59:L73" si="21">IF(J59&lt;&gt;"",J59,K59)</f>
         <v>521708</v>
       </c>
       <c r="O59" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="P59" t="s">
         <v>38</v>
@@ -3705,7 +3688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>78</v>
       </c>
@@ -3716,38 +3699,38 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F60" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="G60" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>#REF!</v>
       </c>
       <c r="H60" t="e">
-        <f>DEC2HEX(E60*HEX2DEC(1000000) +G60*HEX2DEC(10000) +F60)</f>
+        <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="I60" t="e">
-        <f>HEX2DEC(H60)</f>
+        <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
       <c r="K60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>521824</v>
       </c>
       <c r="L60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>521824</v>
       </c>
       <c r="O60" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="P60" t="s">
         <v>38</v>
@@ -3756,7 +3739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>79</v>
       </c>
@@ -3767,38 +3750,38 @@
         <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F61" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="G61" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>#REF!</v>
       </c>
       <c r="H61" t="e">
-        <f>DEC2HEX(E61*HEX2DEC(1000000) +G61*HEX2DEC(10000) +F61)</f>
+        <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="I61" t="e">
-        <f>HEX2DEC(H61)</f>
+        <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
       <c r="K61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>521824</v>
       </c>
       <c r="L61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>521824</v>
       </c>
       <c r="O61" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="P61" t="s">
         <v>38</v>
@@ -3807,7 +3790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>74</v>
       </c>
@@ -3822,19 +3805,19 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="G62" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>#REF!</v>
       </c>
       <c r="H62" t="e">
-        <f>DEC2HEX(E62*HEX2DEC(1000000) +G62*HEX2DEC(10000) +F62)</f>
+        <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="I62" t="e">
-        <f>HEX2DEC(H62)</f>
+        <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
       <c r="K62">
@@ -3842,11 +3825,11 @@
         <v>521940</v>
       </c>
       <c r="L62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>521940</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>75</v>
       </c>
@@ -3861,19 +3844,19 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="G63" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>#REF!</v>
       </c>
       <c r="H63" t="e">
-        <f>DEC2HEX(E63*HEX2DEC(1000000) +G63*HEX2DEC(10000) +F63)</f>
+        <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="I63" t="e">
-        <f>HEX2DEC(H63)</f>
+        <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
       <c r="K63">
@@ -3881,11 +3864,11 @@
         <v>521940</v>
       </c>
       <c r="L63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>521940</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>76</v>
       </c>
@@ -3896,35 +3879,35 @@
         <v>7</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G64" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="H64" t="e">
-        <f>DEC2HEX(E64*HEX2DEC(1000000) +G64*HEX2DEC(10000) +F64)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I64" t="e">
-        <f>HEX2DEC(H64)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>77</v>
       </c>
@@ -3935,35 +3918,35 @@
         <v>8</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G65" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="H65" t="e">
-        <f>DEC2HEX(E65*HEX2DEC(1000000) +G65*HEX2DEC(10000) +F65)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I65" t="e">
-        <f>HEX2DEC(H65)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>72</v>
       </c>
@@ -3974,35 +3957,35 @@
         <v>9</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G66" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="H66" t="e">
-        <f>DEC2HEX(E66*HEX2DEC(1000000) +G66*HEX2DEC(10000) +F66)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I66" t="e">
-        <f>HEX2DEC(H66)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>69</v>
       </c>
@@ -4013,35 +3996,35 @@
         <v>10</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G67" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="H67" t="e">
-        <f>DEC2HEX(E67*HEX2DEC(1000000) +G67*HEX2DEC(10000) +F67)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I67" t="e">
-        <f>HEX2DEC(H67)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>73</v>
       </c>
@@ -4052,35 +4035,35 @@
         <v>11</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G68" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="H68" t="e">
-        <f>DEC2HEX(E68*HEX2DEC(1000000) +G68*HEX2DEC(10000) +F68)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I68" t="e">
-        <f>HEX2DEC(H68)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>70</v>
       </c>
@@ -4091,35 +4074,35 @@
         <v>12</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G69" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="H69" t="e">
-        <f>DEC2HEX(E69*HEX2DEC(1000000) +G69*HEX2DEC(10000) +F69)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I69" t="e">
-        <f>HEX2DEC(H69)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>64</v>
       </c>
@@ -4130,31 +4113,31 @@
         <v>13</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G70" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="H70" t="e">
-        <f>DEC2HEX(E70*HEX2DEC(1000000) +G70*HEX2DEC(10000) +F70)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I70" t="e">
-        <f>HEX2DEC(H70)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U70" t="b">
@@ -4162,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>65</v>
       </c>
@@ -4173,31 +4156,31 @@
         <v>14</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G71" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="H71" t="e">
-        <f>DEC2HEX(E71*HEX2DEC(1000000) +G71*HEX2DEC(10000) +F71)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I71" t="e">
-        <f>HEX2DEC(H71)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U71" t="b">
@@ -4205,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>66</v>
       </c>
@@ -4216,31 +4199,31 @@
         <v>15</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G72" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="H72" t="e">
-        <f>DEC2HEX(E72*HEX2DEC(1000000) +G72*HEX2DEC(10000) +F72)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I72" t="e">
-        <f>HEX2DEC(H72)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U72" t="b">
@@ -4248,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>67</v>
       </c>
@@ -4259,31 +4242,31 @@
         <v>16</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G73" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="H73" t="e">
-        <f>DEC2HEX(E73*HEX2DEC(1000000) +G73*HEX2DEC(10000) +F73)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="I73" t="e">
-        <f>HEX2DEC(H73)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U73" t="b">
@@ -4291,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>96</v>
       </c>
@@ -4305,44 +4288,44 @@
         <v>53</v>
       </c>
       <c r="E74" s="1">
-        <f>IF(P74="",$B$2,$B$2)</f>
+        <f t="shared" ref="E74:E89" si="22">IF(P74="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F74" s="1" t="e">
-        <f>IF(L74&lt;&gt;"",FLOOR((L74-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F74:F89" si="23">IF(L74&lt;&gt;"",FLOOR((L74-MIN(L:L))/2,1),"")</f>
         <v>#REF!</v>
       </c>
       <c r="G74" s="1" t="e">
-        <f>IF(MOD(L74-$B$6,2)=1,8+M74,M74)</f>
+        <f t="shared" ref="G74:G89" si="24">IF(MOD(L74-$B$6,2)=1,8+M74,M74)</f>
         <v>#REF!</v>
       </c>
       <c r="H74" t="e">
-        <f>DEC2HEX(E74*HEX2DEC(1000000) +G74*HEX2DEC(10000) +F74)</f>
+        <f t="shared" ref="H74:H89" si="25">DEC2HEX(E74*HEX2DEC(1000000) +G74*HEX2DEC(10000) +F74)</f>
         <v>#REF!</v>
       </c>
       <c r="I74" t="e">
-        <f>HEX2DEC(H74)</f>
+        <f t="shared" ref="I74:I89" si="26">HEX2DEC(H74)</f>
         <v>#REF!</v>
       </c>
       <c r="J74">
         <v>521336</v>
       </c>
       <c r="K74" t="str">
-        <f>IF(Q74&lt;&gt;"",Q74*116+$B$3,IF(R74&lt;&gt;"",R74*116+$B$3,IF(T74&lt;&gt;"",T74*68+$B$5,"")))</f>
+        <f t="shared" ref="K74:K89" si="27">IF(Q74&lt;&gt;"",Q74*116+$B$3,IF(R74&lt;&gt;"",R74*116+$B$3,IF(T74&lt;&gt;"",T74*68+$B$5,"")))</f>
         <v/>
       </c>
       <c r="L74">
-        <f>IF(J74&lt;&gt;"",J74,K74)</f>
+        <f t="shared" ref="L74:L89" si="28">IF(J74&lt;&gt;"",J74,K74)</f>
         <v>521336</v>
       </c>
       <c r="M74">
         <v>7</v>
       </c>
       <c r="O74" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>97</v>
       </c>
@@ -4356,44 +4339,44 @@
         <v>54</v>
       </c>
       <c r="E75" s="1">
-        <f>IF(P75="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F75" s="1" t="e">
-        <f>IF(L75&lt;&gt;"",FLOOR((L75-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>#REF!</v>
       </c>
       <c r="G75" s="1" t="e">
-        <f>IF(MOD(L75-$B$6,2)=1,8+M75,M75)</f>
+        <f t="shared" si="24"/>
         <v>#REF!</v>
       </c>
       <c r="H75" t="e">
-        <f>DEC2HEX(E75*HEX2DEC(1000000) +G75*HEX2DEC(10000) +F75)</f>
+        <f t="shared" si="25"/>
         <v>#REF!</v>
       </c>
       <c r="I75" t="e">
-        <f>HEX2DEC(H75)</f>
+        <f t="shared" si="26"/>
         <v>#REF!</v>
       </c>
       <c r="J75">
         <v>521337</v>
       </c>
       <c r="K75" t="str">
-        <f>IF(Q75&lt;&gt;"",Q75*116+$B$3,IF(R75&lt;&gt;"",R75*116+$B$3,IF(T75&lt;&gt;"",T75*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L75">
-        <f>IF(J75&lt;&gt;"",J75,K75)</f>
+        <f t="shared" si="28"/>
         <v>521337</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>98</v>
       </c>
@@ -4407,41 +4390,41 @@
         <v>48</v>
       </c>
       <c r="E76" s="1">
-        <f>IF(P76="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F76" s="1" t="e">
-        <f>IF(L76&lt;&gt;"",FLOOR((L76-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>#REF!</v>
       </c>
       <c r="G76" s="1" t="e">
-        <f>IF(MOD(L76-$B$6,2)=1,8+M76,M76)</f>
+        <f t="shared" si="24"/>
         <v>#REF!</v>
       </c>
       <c r="H76" t="e">
-        <f>DEC2HEX(E76*HEX2DEC(1000000) +G76*HEX2DEC(10000) +F76)</f>
+        <f t="shared" si="25"/>
         <v>#REF!</v>
       </c>
       <c r="I76" t="e">
-        <f>HEX2DEC(H76)</f>
+        <f t="shared" si="26"/>
         <v>#REF!</v>
       </c>
       <c r="J76">
         <v>521336</v>
       </c>
       <c r="K76" t="str">
-        <f>IF(Q76&lt;&gt;"",Q76*116+$B$3,IF(R76&lt;&gt;"",R76*116+$B$3,IF(T76&lt;&gt;"",T76*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L76">
-        <f>IF(J76&lt;&gt;"",J76,K76)</f>
+        <f t="shared" si="28"/>
         <v>521336</v>
       </c>
       <c r="M76">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>99</v>
       </c>
@@ -4455,41 +4438,41 @@
         <v>49</v>
       </c>
       <c r="E77" s="1">
-        <f>IF(P77="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F77" s="1" t="e">
-        <f>IF(L77&lt;&gt;"",FLOOR((L77-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>#REF!</v>
       </c>
       <c r="G77" s="1" t="e">
-        <f>IF(MOD(L77-$B$6,2)=1,8+M77,M77)</f>
+        <f t="shared" si="24"/>
         <v>#REF!</v>
       </c>
       <c r="H77" t="e">
-        <f>DEC2HEX(E77*HEX2DEC(1000000) +G77*HEX2DEC(10000) +F77)</f>
+        <f t="shared" si="25"/>
         <v>#REF!</v>
       </c>
       <c r="I77" t="e">
-        <f>HEX2DEC(H77)</f>
+        <f t="shared" si="26"/>
         <v>#REF!</v>
       </c>
       <c r="J77">
         <v>521336</v>
       </c>
       <c r="K77" t="str">
-        <f>IF(Q77&lt;&gt;"",Q77*116+$B$3,IF(R77&lt;&gt;"",R77*116+$B$3,IF(T77&lt;&gt;"",T77*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L77">
-        <f>IF(J77&lt;&gt;"",J77,K77)</f>
+        <f t="shared" si="28"/>
         <v>521336</v>
       </c>
       <c r="M77">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>100</v>
       </c>
@@ -4503,35 +4486,35 @@
         <v>83</v>
       </c>
       <c r="E78" s="1">
-        <f>IF(P78="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f>IF(L78&lt;&gt;"",FLOOR((L78-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G78" s="1" t="e">
-        <f>IF(MOD(L78-$B$6,2)=1,8+M78,M78)</f>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="H78" t="e">
-        <f>DEC2HEX(E78*HEX2DEC(1000000) +G78*HEX2DEC(10000) +F78)</f>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="I78" t="e">
-        <f>HEX2DEC(H78)</f>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="K78" t="str">
-        <f>IF(Q78&lt;&gt;"",Q78*116+$B$3,IF(R78&lt;&gt;"",R78*116+$B$3,IF(T78&lt;&gt;"",T78*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L78" t="str">
-        <f>IF(J78&lt;&gt;"",J78,K78)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>101</v>
       </c>
@@ -4545,35 +4528,35 @@
         <v>84</v>
       </c>
       <c r="E79" s="1">
-        <f>IF(P79="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f>IF(L79&lt;&gt;"",FLOOR((L79-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G79" s="1" t="e">
-        <f>IF(MOD(L79-$B$6,2)=1,8+M79,M79)</f>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="H79" t="e">
-        <f>DEC2HEX(E79*HEX2DEC(1000000) +G79*HEX2DEC(10000) +F79)</f>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="I79" t="e">
-        <f>HEX2DEC(H79)</f>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="K79" t="str">
-        <f>IF(Q79&lt;&gt;"",Q79*116+$B$3,IF(R79&lt;&gt;"",R79*116+$B$3,IF(T79&lt;&gt;"",T79*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L79" t="str">
-        <f>IF(J79&lt;&gt;"",J79,K79)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>102</v>
       </c>
@@ -4584,35 +4567,35 @@
         <v>3</v>
       </c>
       <c r="E80" s="1">
-        <f>IF(P80="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f>IF(L80&lt;&gt;"",FLOOR((L80-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G80" s="1" t="e">
-        <f>IF(MOD(L80-$B$6,2)=1,8+M80,M80)</f>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" t="e">
-        <f>DEC2HEX(E80*HEX2DEC(1000000) +G80*HEX2DEC(10000) +F80)</f>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" t="e">
-        <f>HEX2DEC(H80)</f>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" t="str">
-        <f>IF(Q80&lt;&gt;"",Q80*116+$B$3,IF(R80&lt;&gt;"",R80*116+$B$3,IF(T80&lt;&gt;"",T80*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L80" t="str">
-        <f>IF(J80&lt;&gt;"",J80,K80)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>103</v>
       </c>
@@ -4623,35 +4606,35 @@
         <v>4</v>
       </c>
       <c r="E81" s="1">
-        <f>IF(P81="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f>IF(L81&lt;&gt;"",FLOOR((L81-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G81" s="1" t="e">
-        <f>IF(MOD(L81-$B$6,2)=1,8+M81,M81)</f>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="H81" t="e">
-        <f>DEC2HEX(E81*HEX2DEC(1000000) +G81*HEX2DEC(10000) +F81)</f>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="I81" t="e">
-        <f>HEX2DEC(H81)</f>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="K81" t="str">
-        <f>IF(Q81&lt;&gt;"",Q81*116+$B$3,IF(R81&lt;&gt;"",R81*116+$B$3,IF(T81&lt;&gt;"",T81*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L81" t="str">
-        <f>IF(J81&lt;&gt;"",J81,K81)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>104</v>
       </c>
@@ -4665,41 +4648,41 @@
         <v>57</v>
       </c>
       <c r="E82" s="1">
-        <f>IF(P82="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F82" s="1" t="e">
-        <f>IF(L82&lt;&gt;"",FLOOR((L82-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>#REF!</v>
       </c>
       <c r="G82" s="1" t="e">
-        <f>IF(MOD(L82-$B$6,2)=1,8+M82,M82)</f>
+        <f t="shared" si="24"/>
         <v>#REF!</v>
       </c>
       <c r="H82" t="e">
-        <f>DEC2HEX(E82*HEX2DEC(1000000) +G82*HEX2DEC(10000) +F82)</f>
+        <f t="shared" si="25"/>
         <v>#REF!</v>
       </c>
       <c r="I82" t="e">
-        <f>HEX2DEC(H82)</f>
+        <f t="shared" si="26"/>
         <v>#REF!</v>
       </c>
       <c r="J82">
         <v>521336</v>
       </c>
       <c r="K82" t="str">
-        <f>IF(Q82&lt;&gt;"",Q82*116+$B$3,IF(R82&lt;&gt;"",R82*116+$B$3,IF(T82&lt;&gt;"",T82*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L82">
-        <f>IF(J82&lt;&gt;"",J82,K82)</f>
+        <f t="shared" si="28"/>
         <v>521336</v>
       </c>
       <c r="M82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>105</v>
       </c>
@@ -4713,41 +4696,41 @@
         <v>50</v>
       </c>
       <c r="E83" s="1">
-        <f>IF(P83="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F83" s="1" t="e">
-        <f>IF(L83&lt;&gt;"",FLOOR((L83-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>#REF!</v>
       </c>
       <c r="G83" s="1" t="e">
-        <f>IF(MOD(L83-$B$6,2)=1,8+M83,M83)</f>
+        <f t="shared" si="24"/>
         <v>#REF!</v>
       </c>
       <c r="H83" t="e">
-        <f>DEC2HEX(E83*HEX2DEC(1000000) +G83*HEX2DEC(10000) +F83)</f>
+        <f t="shared" si="25"/>
         <v>#REF!</v>
       </c>
       <c r="I83" t="e">
-        <f>HEX2DEC(H83)</f>
+        <f t="shared" si="26"/>
         <v>#REF!</v>
       </c>
       <c r="J83">
         <v>521336</v>
       </c>
       <c r="K83" t="str">
-        <f>IF(Q83&lt;&gt;"",Q83*116+$B$3,IF(R83&lt;&gt;"",R83*116+$B$3,IF(T83&lt;&gt;"",T83*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L83">
-        <f>IF(J83&lt;&gt;"",J83,K83)</f>
+        <f t="shared" si="28"/>
         <v>521336</v>
       </c>
       <c r="M83">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>106</v>
       </c>
@@ -4761,41 +4744,41 @@
         <v>51</v>
       </c>
       <c r="E84" s="1">
-        <f>IF(P84="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F84" s="1" t="e">
-        <f>IF(L84&lt;&gt;"",FLOOR((L84-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>#REF!</v>
       </c>
       <c r="G84" s="1" t="e">
-        <f>IF(MOD(L84-$B$6,2)=1,8+M84,M84)</f>
+        <f t="shared" si="24"/>
         <v>#REF!</v>
       </c>
       <c r="H84" t="e">
-        <f>DEC2HEX(E84*HEX2DEC(1000000) +G84*HEX2DEC(10000) +F84)</f>
+        <f t="shared" si="25"/>
         <v>#REF!</v>
       </c>
       <c r="I84" t="e">
-        <f>HEX2DEC(H84)</f>
+        <f t="shared" si="26"/>
         <v>#REF!</v>
       </c>
       <c r="J84">
         <v>521336</v>
       </c>
       <c r="K84" t="str">
-        <f>IF(Q84&lt;&gt;"",Q84*116+$B$3,IF(R84&lt;&gt;"",R84*116+$B$3,IF(T84&lt;&gt;"",T84*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L84">
-        <f>IF(J84&lt;&gt;"",J84,K84)</f>
+        <f t="shared" si="28"/>
         <v>521336</v>
       </c>
       <c r="M84">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>107</v>
       </c>
@@ -4809,44 +4792,44 @@
         <v>58</v>
       </c>
       <c r="E85" s="1">
-        <f>IF(P85="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F85" s="1" t="e">
-        <f>IF(L85&lt;&gt;"",FLOOR((L85-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>#REF!</v>
       </c>
       <c r="G85" s="1" t="e">
-        <f>IF(MOD(L85-$B$6,2)=1,8+M85,M85)</f>
+        <f t="shared" si="24"/>
         <v>#REF!</v>
       </c>
       <c r="H85" t="e">
-        <f>DEC2HEX(E85*HEX2DEC(1000000) +G85*HEX2DEC(10000) +F85)</f>
+        <f t="shared" si="25"/>
         <v>#REF!</v>
       </c>
       <c r="I85" t="e">
-        <f>HEX2DEC(H85)</f>
+        <f t="shared" si="26"/>
         <v>#REF!</v>
       </c>
       <c r="J85">
         <v>521337</v>
       </c>
       <c r="K85" t="str">
-        <f>IF(Q85&lt;&gt;"",Q85*116+$B$3,IF(R85&lt;&gt;"",R85*116+$B$3,IF(T85&lt;&gt;"",T85*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L85">
-        <f>IF(J85&lt;&gt;"",J85,K85)</f>
+        <f t="shared" si="28"/>
         <v>521337</v>
       </c>
       <c r="M85">
         <v>1</v>
       </c>
       <c r="O85" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>108</v>
       </c>
@@ -4860,44 +4843,44 @@
         <v>70</v>
       </c>
       <c r="E86" s="1">
-        <f>IF(P86="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F86" s="1" t="e">
-        <f>IF(L86&lt;&gt;"",FLOOR((L86-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>#REF!</v>
       </c>
       <c r="G86" s="1" t="e">
-        <f>IF(MOD(L86-$B$6,2)=1,8+M86,M86)</f>
+        <f t="shared" si="24"/>
         <v>#REF!</v>
       </c>
       <c r="H86" t="e">
-        <f>DEC2HEX(E86*HEX2DEC(1000000) +G86*HEX2DEC(10000) +F86)</f>
+        <f t="shared" si="25"/>
         <v>#REF!</v>
       </c>
       <c r="I86" t="e">
-        <f>HEX2DEC(H86)</f>
+        <f t="shared" si="26"/>
         <v>#REF!</v>
       </c>
       <c r="J86">
         <v>521337</v>
       </c>
       <c r="K86" t="str">
-        <f>IF(Q86&lt;&gt;"",Q86*116+$B$3,IF(R86&lt;&gt;"",R86*116+$B$3,IF(T86&lt;&gt;"",T86*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L86">
-        <f>IF(J86&lt;&gt;"",J86,K86)</f>
+        <f t="shared" si="28"/>
         <v>521337</v>
       </c>
       <c r="M86">
         <v>2</v>
       </c>
       <c r="O86" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>109</v>
       </c>
@@ -4911,44 +4894,44 @@
         <v>55</v>
       </c>
       <c r="E87" s="1">
-        <f>IF(P87="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F87" s="1" t="e">
-        <f>IF(L87&lt;&gt;"",FLOOR((L87-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>#REF!</v>
       </c>
       <c r="G87" s="1" t="e">
-        <f>IF(MOD(L87-$B$6,2)=1,8+M87,M87)</f>
+        <f t="shared" si="24"/>
         <v>#REF!</v>
       </c>
       <c r="H87" t="e">
-        <f>DEC2HEX(E87*HEX2DEC(1000000) +G87*HEX2DEC(10000) +F87)</f>
+        <f t="shared" si="25"/>
         <v>#REF!</v>
       </c>
       <c r="I87" t="e">
-        <f>HEX2DEC(H87)</f>
+        <f t="shared" si="26"/>
         <v>#REF!</v>
       </c>
       <c r="J87">
         <v>521337</v>
       </c>
       <c r="K87" t="str">
-        <f>IF(Q87&lt;&gt;"",Q87*116+$B$3,IF(R87&lt;&gt;"",R87*116+$B$3,IF(T87&lt;&gt;"",T87*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L87">
-        <f>IF(J87&lt;&gt;"",J87,K87)</f>
+        <f t="shared" si="28"/>
         <v>521337</v>
       </c>
       <c r="M87">
         <v>3</v>
       </c>
       <c r="O87" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>110</v>
       </c>
@@ -4962,41 +4945,41 @@
         <v>52</v>
       </c>
       <c r="E88" s="1">
-        <f>IF(P88="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F88" s="1" t="e">
-        <f>IF(L88&lt;&gt;"",FLOOR((L88-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>#REF!</v>
       </c>
       <c r="G88" s="1" t="e">
-        <f>IF(MOD(L88-$B$6,2)=1,8+M88,M88)</f>
+        <f t="shared" si="24"/>
         <v>#REF!</v>
       </c>
       <c r="H88" t="e">
-        <f>DEC2HEX(E88*HEX2DEC(1000000) +G88*HEX2DEC(10000) +F88)</f>
+        <f t="shared" si="25"/>
         <v>#REF!</v>
       </c>
       <c r="I88" t="e">
-        <f>HEX2DEC(H88)</f>
+        <f t="shared" si="26"/>
         <v>#REF!</v>
       </c>
       <c r="J88">
         <v>521337</v>
       </c>
       <c r="K88" t="str">
-        <f>IF(Q88&lt;&gt;"",Q88*116+$B$3,IF(R88&lt;&gt;"",R88*116+$B$3,IF(T88&lt;&gt;"",T88*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L88">
-        <f>IF(J88&lt;&gt;"",J88,K88)</f>
+        <f t="shared" si="28"/>
         <v>521337</v>
       </c>
       <c r="M88">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>111</v>
       </c>
@@ -5010,45 +4993,50 @@
         <v>56</v>
       </c>
       <c r="E89" s="1">
-        <f>IF(P89="",$B$2,$B$2)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F89" s="1" t="e">
-        <f>IF(L89&lt;&gt;"",FLOOR((L89-MIN(L:L))/2,1),"")</f>
+        <f t="shared" si="23"/>
         <v>#REF!</v>
       </c>
       <c r="G89" s="1" t="e">
-        <f>IF(MOD(L89-$B$6,2)=1,8+M89,M89)</f>
+        <f t="shared" si="24"/>
         <v>#REF!</v>
       </c>
       <c r="H89" t="e">
-        <f>DEC2HEX(E89*HEX2DEC(1000000) +G89*HEX2DEC(10000) +F89)</f>
+        <f t="shared" si="25"/>
         <v>#REF!</v>
       </c>
       <c r="I89" t="e">
-        <f>HEX2DEC(H89)</f>
+        <f t="shared" si="26"/>
         <v>#REF!</v>
       </c>
       <c r="J89">
         <v>521337</v>
       </c>
       <c r="K89" t="str">
-        <f>IF(Q89&lt;&gt;"",Q89*116+$B$3,IF(R89&lt;&gt;"",R89*116+$B$3,IF(T89&lt;&gt;"",T89*68+$B$5,"")))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L89">
-        <f>IF(J89&lt;&gt;"",J89,K89)</f>
+        <f t="shared" si="28"/>
         <v>521337</v>
       </c>
       <c r="M89">
         <v>5</v>
       </c>
       <c r="O89" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A9:U89" xr:uid="{A89B904C-2B30-413B-8D81-C58D97718B2C}">
+    <filterColumn colId="19">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A10:U89">
       <sortCondition ref="B10:B89"/>
       <sortCondition ref="C10:C89"/>
@@ -5068,8 +5056,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5093,7 +5081,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -5133,7 +5121,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B5">
         <f>MIN(K:K)</f>
@@ -5163,7 +5151,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>61</v>
@@ -5202,10 +5190,10 @@
         <v>63</v>
       </c>
       <c r="R7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5219,11 +5207,11 @@
         <v>18</v>
       </c>
       <c r="E8" s="1">
-        <f>IF(P8="",$B$2,$B$2)</f>
+        <f t="shared" ref="E8:E42" si="0">IF(P8="",$B$2,$B$2)</f>
         <v>2</v>
       </c>
       <c r="F8" s="1">
-        <f>IF(L8&lt;&gt;"",FLOOR((L8-$B$4)/2,1),"")</f>
+        <f t="shared" ref="F8:F42" si="1">IF(L8&lt;&gt;"",FLOOR((L8-$B$4)/2,1),"")</f>
         <v>3976</v>
       </c>
       <c r="G8" s="1">
@@ -5231,11 +5219,11 @@
         <v>8</v>
       </c>
       <c r="H8" t="str">
-        <f>DEC2HEX(E8*HEX2DEC(1000000) +G8*HEX2DEC(10000) +F8)</f>
+        <f t="shared" ref="H8:H42" si="2">DEC2HEX(E8*HEX2DEC(1000000) +G8*HEX2DEC(10000) +F8)</f>
         <v>2080F88</v>
       </c>
       <c r="I8">
-        <f>HEX2DEC(H8)</f>
+        <f t="shared" ref="I8:I42" si="3">HEX2DEC(H8)</f>
         <v>34082696</v>
       </c>
       <c r="K8">
@@ -5243,14 +5231,14 @@
         <v>521358</v>
       </c>
       <c r="L8">
-        <f>IF(J8&lt;&gt;"",J8,K8)</f>
+        <f t="shared" ref="L8:L42" si="4">IF(J8&lt;&gt;"",J8,K8)</f>
         <v>521358</v>
       </c>
       <c r="N8" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="O8" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="P8" t="s">
         <v>38</v>
@@ -5259,11 +5247,11 @@
         <v>0</v>
       </c>
       <c r="R8" t="str">
-        <f>IF(P8="*",D8&amp;" : INT :="&amp;(Q8+1)&amp;";","")</f>
+        <f t="shared" ref="R8:R42" si="5">IF(P8="*",D8&amp;" : INT :="&amp;(Q8+1)&amp;";","")</f>
         <v>Cy01 : INT :=1;</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5277,11 +5265,11 @@
         <v>19</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(P9="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F9" s="1">
-        <f>IF(L9&lt;&gt;"",FLOOR((L9-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>4034</v>
       </c>
       <c r="G9" s="1">
@@ -5289,11 +5277,11 @@
         <v>8</v>
       </c>
       <c r="H9" t="str">
-        <f>DEC2HEX(E9*HEX2DEC(1000000) +G9*HEX2DEC(10000) +F9)</f>
+        <f t="shared" si="2"/>
         <v>2080FC2</v>
       </c>
       <c r="I9">
-        <f>HEX2DEC(H9)</f>
+        <f t="shared" si="3"/>
         <v>34082754</v>
       </c>
       <c r="K9">
@@ -5301,14 +5289,14 @@
         <v>521474</v>
       </c>
       <c r="L9">
-        <f>IF(J9&lt;&gt;"",J9,K9)</f>
+        <f t="shared" si="4"/>
         <v>521474</v>
       </c>
       <c r="N9" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="O9" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="P9" t="s">
         <v>38</v>
@@ -5317,11 +5305,11 @@
         <v>1</v>
       </c>
       <c r="R9" t="str">
-        <f>IF(P9="*",D9&amp;" : INT :="&amp;(Q9+1)&amp;";","")</f>
+        <f t="shared" si="5"/>
         <v>Cy02 : INT :=2;</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -5335,11 +5323,11 @@
         <v>20</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(P10="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F10" s="1">
-        <f>IF(L10&lt;&gt;"",FLOOR((L10-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>4092</v>
       </c>
       <c r="G10" s="1">
@@ -5347,11 +5335,11 @@
         <v>8</v>
       </c>
       <c r="H10" t="str">
-        <f>DEC2HEX(E10*HEX2DEC(1000000) +G10*HEX2DEC(10000) +F10)</f>
+        <f t="shared" si="2"/>
         <v>2080FFC</v>
       </c>
       <c r="I10">
-        <f>HEX2DEC(H10)</f>
+        <f t="shared" si="3"/>
         <v>34082812</v>
       </c>
       <c r="K10">
@@ -5359,14 +5347,14 @@
         <v>521590</v>
       </c>
       <c r="L10">
-        <f>IF(J10&lt;&gt;"",J10,K10)</f>
+        <f t="shared" si="4"/>
         <v>521590</v>
       </c>
       <c r="N10" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="O10" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="P10" t="s">
         <v>38</v>
@@ -5375,124 +5363,124 @@
         <v>2</v>
       </c>
       <c r="R10" t="str">
-        <f>IF(P10="*",D10&amp;" : INT :="&amp;(Q10+1)&amp;";","")</f>
+        <f t="shared" si="5"/>
         <v>Cy03 : INT :=3;</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(P11="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F11" s="1">
-        <f>IF(L11&lt;&gt;"",FLOOR((L11-$B$4)/2,1),"")</f>
-        <v>4498</v>
+        <f t="shared" si="1"/>
+        <v>4150</v>
       </c>
       <c r="G11" s="1">
         <f>IF(MOD(L11-$B$4,2)=1,8+M11,M11)</f>
         <v>8</v>
       </c>
       <c r="H11" t="str">
-        <f>DEC2HEX(E11*HEX2DEC(1000000) +G11*HEX2DEC(10000) +F11)</f>
-        <v>2081192</v>
+        <f t="shared" si="2"/>
+        <v>2081036</v>
       </c>
       <c r="I11">
-        <f>HEX2DEC(H11)</f>
-        <v>34083218</v>
+        <f t="shared" si="3"/>
+        <v>34082870</v>
       </c>
       <c r="K11">
         <f>IF(Q11&lt;&gt;"",$B$3+Q11*116,"")</f>
-        <v>522402</v>
+        <v>521706</v>
       </c>
       <c r="L11">
-        <f>IF(J11&lt;&gt;"",J11,K11)</f>
-        <v>522402</v>
+        <f t="shared" si="4"/>
+        <v>521706</v>
       </c>
       <c r="N11" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="O11" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="P11" t="s">
         <v>38</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R11" t="str">
-        <f>IF(P11="*",D11&amp;" : INT :="&amp;(Q11+1)&amp;";","")</f>
-        <v>ECy01 : INT :=10;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>FCy01 : INT :=4;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="E12" s="1">
-        <f>IF(P12="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F12" s="1">
-        <f>IF(L12&lt;&gt;"",FLOOR((L12-$B$4)/2,1),"")</f>
-        <v>4440</v>
+        <f t="shared" si="1"/>
+        <v>4208</v>
       </c>
       <c r="G12" s="1">
         <f>IF(MOD(L12-$B$4,2)=1,8+M12,M12)</f>
         <v>8</v>
       </c>
       <c r="H12" t="str">
-        <f>DEC2HEX(E12*HEX2DEC(1000000) +G12*HEX2DEC(10000) +F12)</f>
-        <v>2081158</v>
+        <f t="shared" si="2"/>
+        <v>2081070</v>
       </c>
       <c r="I12">
-        <f>HEX2DEC(H12)</f>
-        <v>34083160</v>
+        <f t="shared" si="3"/>
+        <v>34082928</v>
       </c>
       <c r="K12">
         <f>IF(Q12&lt;&gt;"",$B$3+Q12*116,"")</f>
-        <v>522286</v>
+        <v>521822</v>
       </c>
       <c r="L12">
-        <f>IF(J12&lt;&gt;"",J12,K12)</f>
-        <v>522286</v>
+        <f t="shared" si="4"/>
+        <v>521822</v>
       </c>
       <c r="N12" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="O12" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="P12" t="s">
         <v>38</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R12" t="str">
-        <f>IF(P12="*",D12&amp;" : INT :="&amp;(Q12+1)&amp;";","")</f>
-        <v>FCy04 : INT :=9;</v>
+        <f t="shared" si="5"/>
+        <v>FCy02 : INT :=5;</v>
       </c>
     </row>
     <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -5506,11 +5494,11 @@
         <v>6</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(P13="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF(L13&lt;&gt;"",FLOOR((L13-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G13" s="1" t="e">
@@ -5518,11 +5506,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H13" t="e">
-        <f>DEC2HEX(E13*HEX2DEC(1000000) +G13*HEX2DEC(10000) +F13)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I13" t="e">
-        <f>HEX2DEC(H13)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="K13" t="str">
@@ -5530,11 +5518,11 @@
         <v/>
       </c>
       <c r="L13" t="str">
-        <f>IF(J13&lt;&gt;"",J13,K13)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R13" t="str">
-        <f>IF(P13="*",D13&amp;" : INT :="&amp;(Q13+1)&amp;";","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5549,11 +5537,11 @@
         <v>7</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(P14="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF(L14&lt;&gt;"",FLOOR((L14-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G14" s="1" t="e">
@@ -5561,11 +5549,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H14" t="e">
-        <f>DEC2HEX(E14*HEX2DEC(1000000) +G14*HEX2DEC(10000) +F14)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I14" t="e">
-        <f>HEX2DEC(H14)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="K14" t="str">
@@ -5573,14 +5561,14 @@
         <v/>
       </c>
       <c r="L14" t="str">
-        <f>IF(J14&lt;&gt;"",J14,K14)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="R14" t="str">
-        <f>IF(P14="*",D14&amp;" : INT :="&amp;(Q14+1)&amp;";","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5595,11 +5583,11 @@
         <v>8</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(P15="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF(L15&lt;&gt;"",FLOOR((L15-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G15" s="1" t="e">
@@ -5607,11 +5595,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H15" t="e">
-        <f>DEC2HEX(E15*HEX2DEC(1000000) +G15*HEX2DEC(10000) +F15)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I15" t="e">
-        <f>HEX2DEC(H15)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="K15" t="str">
@@ -5619,11 +5607,11 @@
         <v/>
       </c>
       <c r="L15" t="str">
-        <f>IF(J15&lt;&gt;"",J15,K15)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R15" t="str">
-        <f>IF(P15="*",D15&amp;" : INT :="&amp;(Q15+1)&amp;";","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5641,44 +5629,44 @@
         <v>11</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(P16="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F16" s="1">
-        <f>IF(L16&lt;&gt;"",FLOOR((L16-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <f>IF(MOD(L16-$B$4,2)=1,8+M16,M16)</f>
+        <f t="shared" ref="G16:G25" si="6">IF(MOD(L16-$B$4,2)=1,8+M16,M16)</f>
         <v>0</v>
       </c>
       <c r="H16" t="str">
-        <f>DEC2HEX(E16*HEX2DEC(1000000) +G16*HEX2DEC(10000) +F16)</f>
+        <f t="shared" si="2"/>
         <v>2000000</v>
       </c>
       <c r="I16">
-        <f>HEX2DEC(H16)</f>
+        <f t="shared" si="3"/>
         <v>33554432</v>
       </c>
       <c r="J16">
         <v>513405</v>
       </c>
       <c r="K16" t="str">
-        <f>IF(Q16&lt;&gt;"",$B$3+Q16*116,"")</f>
+        <f t="shared" ref="K16:K25" si="7">IF(Q16&lt;&gt;"",$B$3+Q16*116,"")</f>
         <v/>
       </c>
       <c r="L16">
-        <f>IF(J16&lt;&gt;"",J16,K16)</f>
+        <f t="shared" si="4"/>
         <v>513405</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="R16" t="str">
-        <f>IF(P16="*",D16&amp;" : INT :="&amp;(Q16+1)&amp;";","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5696,44 +5684,44 @@
         <v>12</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(P17="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F17" s="1">
-        <f>IF(L17&lt;&gt;"",FLOOR((L17-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <f>IF(MOD(L17-$B$4,2)=1,8+M17,M17)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H17" t="str">
-        <f>DEC2HEX(E17*HEX2DEC(1000000) +G17*HEX2DEC(10000) +F17)</f>
+        <f t="shared" si="2"/>
         <v>2010000</v>
       </c>
       <c r="I17">
-        <f>HEX2DEC(H17)</f>
+        <f t="shared" si="3"/>
         <v>33619968</v>
       </c>
       <c r="J17">
         <v>513405</v>
       </c>
       <c r="K17" t="str">
-        <f>IF(Q17&lt;&gt;"",$B$3+Q17*116,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L17">
-        <f>IF(J17&lt;&gt;"",J17,K17)</f>
+        <f t="shared" si="4"/>
         <v>513405</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="R17" t="str">
-        <f>IF(P17="*",D17&amp;" : INT :="&amp;(Q17+1)&amp;";","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5751,44 +5739,44 @@
         <v>13</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(P18="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F18" s="1">
-        <f>IF(L18&lt;&gt;"",FLOOR((L18-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <f>IF(MOD(L18-$B$4,2)=1,8+M18,M18)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H18" t="str">
-        <f>DEC2HEX(E18*HEX2DEC(1000000) +G18*HEX2DEC(10000) +F18)</f>
+        <f t="shared" si="2"/>
         <v>2020000</v>
       </c>
       <c r="I18">
-        <f>HEX2DEC(H18)</f>
+        <f t="shared" si="3"/>
         <v>33685504</v>
       </c>
       <c r="J18">
         <v>513405</v>
       </c>
       <c r="K18" t="str">
-        <f>IF(Q18&lt;&gt;"",$B$3+Q18*116,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L18">
-        <f>IF(J18&lt;&gt;"",J18,K18)</f>
+        <f t="shared" si="4"/>
         <v>513405</v>
       </c>
       <c r="M18">
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="R18" t="str">
-        <f>IF(P18="*",D18&amp;" : INT :="&amp;(Q18+1)&amp;";","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5806,44 +5794,44 @@
         <v>14</v>
       </c>
       <c r="E19" s="1">
-        <f>IF(P19="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F19" s="1">
-        <f>IF(L19&lt;&gt;"",FLOOR((L19-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <f>IF(MOD(L19-$B$4,2)=1,8+M19,M19)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H19" t="str">
-        <f>DEC2HEX(E19*HEX2DEC(1000000) +G19*HEX2DEC(10000) +F19)</f>
+        <f t="shared" si="2"/>
         <v>2030000</v>
       </c>
       <c r="I19">
-        <f>HEX2DEC(H19)</f>
+        <f t="shared" si="3"/>
         <v>33751040</v>
       </c>
       <c r="J19">
         <v>513405</v>
       </c>
       <c r="K19" t="str">
-        <f>IF(Q19&lt;&gt;"",$B$3+Q19*116,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L19">
-        <f>IF(J19&lt;&gt;"",J19,K19)</f>
+        <f t="shared" si="4"/>
         <v>513405</v>
       </c>
       <c r="M19">
         <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="R19" t="str">
-        <f>IF(P19="*",D19&amp;" : INT :="&amp;(Q19+1)&amp;";","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5861,44 +5849,44 @@
         <v>21</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(P20="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F20" s="1">
-        <f>IF(L20&lt;&gt;"",FLOOR((L20-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f>IF(MOD(L20-$B$4,2)=1,8+M20,M20)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H20" t="str">
-        <f>DEC2HEX(E20*HEX2DEC(1000000) +G20*HEX2DEC(10000) +F20)</f>
+        <f t="shared" si="2"/>
         <v>2040000</v>
       </c>
       <c r="I20">
-        <f>HEX2DEC(H20)</f>
+        <f t="shared" si="3"/>
         <v>33816576</v>
       </c>
       <c r="J20">
         <v>513405</v>
       </c>
       <c r="K20" t="str">
-        <f>IF(Q20&lt;&gt;"",$B$3+Q20*116,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L20">
-        <f>IF(J20&lt;&gt;"",J20,K20)</f>
+        <f t="shared" si="4"/>
         <v>513405</v>
       </c>
       <c r="M20">
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="R20" t="str">
-        <f>IF(P20="*",D20&amp;" : INT :="&amp;(Q20+1)&amp;";","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5916,44 +5904,44 @@
         <v>22</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(P21="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F21" s="1">
-        <f>IF(L21&lt;&gt;"",FLOOR((L21-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f>IF(MOD(L21-$B$4,2)=1,8+M21,M21)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H21" t="str">
-        <f>DEC2HEX(E21*HEX2DEC(1000000) +G21*HEX2DEC(10000) +F21)</f>
+        <f t="shared" si="2"/>
         <v>2050000</v>
       </c>
       <c r="I21">
-        <f>HEX2DEC(H21)</f>
+        <f t="shared" si="3"/>
         <v>33882112</v>
       </c>
       <c r="J21">
         <v>513405</v>
       </c>
       <c r="K21" t="str">
-        <f>IF(Q21&lt;&gt;"",$B$3+Q21*116,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L21">
-        <f>IF(J21&lt;&gt;"",J21,K21)</f>
+        <f t="shared" si="4"/>
         <v>513405</v>
       </c>
       <c r="M21">
         <v>5</v>
       </c>
       <c r="O21" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="R21" t="str">
-        <f>IF(P21="*",D21&amp;" : INT :="&amp;(Q21+1)&amp;";","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5971,44 +5959,44 @@
         <v>23</v>
       </c>
       <c r="E22" s="1">
-        <f>IF(P22="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F22" s="1">
-        <f>IF(L22&lt;&gt;"",FLOOR((L22-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <f>IF(MOD(L22-$B$4,2)=1,8+M22,M22)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="H22" t="str">
-        <f>DEC2HEX(E22*HEX2DEC(1000000) +G22*HEX2DEC(10000) +F22)</f>
+        <f t="shared" si="2"/>
         <v>2060000</v>
       </c>
       <c r="I22">
-        <f>HEX2DEC(H22)</f>
+        <f t="shared" si="3"/>
         <v>33947648</v>
       </c>
       <c r="J22">
         <v>513405</v>
       </c>
       <c r="K22" t="str">
-        <f>IF(Q22&lt;&gt;"",$B$3+Q22*116,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L22">
-        <f>IF(J22&lt;&gt;"",J22,K22)</f>
+        <f t="shared" si="4"/>
         <v>513405</v>
       </c>
       <c r="M22">
         <v>6</v>
       </c>
       <c r="O22" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="R22" t="str">
-        <f>IF(P22="*",D22&amp;" : INT :="&amp;(Q22+1)&amp;";","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6026,117 +6014,117 @@
         <v>24</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(P23="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F23" s="1">
-        <f>IF(L23&lt;&gt;"",FLOOR((L23-$B$4)/2,1),"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <f>IF(MOD(L23-$B$4,2)=1,8+M23,M23)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="H23" t="str">
-        <f>DEC2HEX(E23*HEX2DEC(1000000) +G23*HEX2DEC(10000) +F23)</f>
+        <f t="shared" si="2"/>
         <v>2070000</v>
       </c>
       <c r="I23">
-        <f>HEX2DEC(H23)</f>
+        <f t="shared" si="3"/>
         <v>34013184</v>
       </c>
       <c r="J23">
         <v>513405</v>
       </c>
       <c r="K23" t="str">
-        <f>IF(Q23&lt;&gt;"",$B$3+Q23*116,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L23">
-        <f>IF(J23&lt;&gt;"",J23,K23)</f>
+        <f t="shared" si="4"/>
         <v>513405</v>
       </c>
       <c r="M23">
         <v>7</v>
       </c>
       <c r="O23" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="R23" t="str">
-        <f>IF(P23="*",D23&amp;" : INT :="&amp;(Q23+1)&amp;";","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>16</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>96</v>
+        <v>34</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ref="E8:E39" si="0">IF(P24="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" ref="F8:F39" si="1">IF(L24&lt;&gt;"",FLOOR((L24-$B$4)/2,1),"")</f>
-        <v>4324</v>
+        <f t="shared" si="1"/>
+        <v>4266</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ref="G14:G25" si="2">IF(MOD(L24-$B$4,2)=1,8+M24,M24)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" ref="H8:H39" si="3">DEC2HEX(E24*HEX2DEC(1000000) +G24*HEX2DEC(10000) +F24)</f>
-        <v>20810E4</v>
+        <f t="shared" si="2"/>
+        <v>20810AA</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I14:I25" si="4">HEX2DEC(H24)</f>
-        <v>34083044</v>
+        <f t="shared" si="3"/>
+        <v>34082986</v>
       </c>
       <c r="K24">
-        <f t="shared" ref="K14:K25" si="5">IF(Q24&lt;&gt;"",$B$3+Q24*116,"")</f>
-        <v>522054</v>
+        <f t="shared" si="7"/>
+        <v>521938</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L14:L25" si="6">IF(J24&lt;&gt;"",J24,K24)</f>
-        <v>522054</v>
+        <f t="shared" si="4"/>
+        <v>521938</v>
       </c>
       <c r="N24" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="O24" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="P24" t="s">
         <v>38</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" ref="R8:R39" si="7">IF(P24="*",D24&amp;" : INT :="&amp;(Q24+1)&amp;";","")</f>
-        <v>CCy1 : INT :=7;</v>
+        <f t="shared" si="5"/>
+        <v>FCy03 : INT :=6;</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
@@ -6144,46 +6132,46 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
-        <v>4382</v>
+        <v>4324</v>
       </c>
       <c r="G25" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H25" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H25" t="str">
+        <v>20810E4</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="3"/>
-        <v>208111E</v>
-      </c>
-      <c r="I25">
+        <v>34083044</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>522054</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="4"/>
-        <v>34083102</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="5"/>
-        <v>522170</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="6"/>
-        <v>522170</v>
+        <v>522054</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="O25" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="P25" t="s">
         <v>38</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="7"/>
-        <v>CCy2 : INT :=8;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>CCy1 : INT :=7;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>18</v>
       </c>
@@ -6206,27 +6194,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="H26" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I26" t="e">
-        <f t="shared" ref="I26:I39" si="9">HEX2DEC(H26)</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="K26" t="str">
-        <f t="shared" ref="K26:K39" si="10">IF(Q26&lt;&gt;"",$B$3+Q26*136,"")</f>
+        <f t="shared" ref="K26:K39" si="9">IF(Q26&lt;&gt;"",$B$3+Q26*136,"")</f>
         <v/>
       </c>
       <c r="L26" t="str">
-        <f t="shared" ref="L26:L39" si="11">IF(J26&lt;&gt;"",J26,K26)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>19</v>
       </c>
@@ -6249,27 +6237,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="H27" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I27" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I27" t="e">
+      <c r="K27" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20</v>
       </c>
@@ -6292,27 +6280,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="H28" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I28" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I28" t="e">
+      <c r="K28" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>21</v>
       </c>
@@ -6335,27 +6323,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="H29" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I29" t="e">
+      <c r="K29" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>22</v>
       </c>
@@ -6378,27 +6366,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="H30" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I30" t="e">
+      <c r="K30" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>23</v>
       </c>
@@ -6421,27 +6409,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="H31" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I31" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I31" t="e">
+      <c r="K31" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>24</v>
       </c>
@@ -6464,27 +6452,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="H32" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I32" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I32" t="e">
+      <c r="K32" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>25</v>
       </c>
@@ -6507,27 +6495,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="H33" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I33" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I33" t="e">
+      <c r="K33" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>26</v>
       </c>
@@ -6550,27 +6538,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="H34" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I34" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I34" t="e">
+      <c r="K34" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>27</v>
       </c>
@@ -6593,27 +6581,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="H35" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I35" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I35" t="e">
+      <c r="K35" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>28</v>
       </c>
@@ -6636,27 +6624,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="H36" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I36" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I36" t="e">
+      <c r="K36" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>29</v>
       </c>
@@ -6679,27 +6667,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="H37" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I37" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I37" t="e">
+      <c r="K37" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>30</v>
       </c>
@@ -6722,27 +6710,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="H38" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I38" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I38" t="e">
+      <c r="K38" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K38" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>31</v>
       </c>
@@ -6765,198 +6753,198 @@
         <v>#VALUE!</v>
       </c>
       <c r="H39" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I39" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I39" t="e">
+      <c r="K39" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>32</v>
-      </c>
-      <c r="B40" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B40" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" ref="E40:E57" si="12">IF(P40="",$B$2,$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" ref="F40:F57" si="13">IF(L40&lt;&gt;"",FLOOR((L40-$B$4)/2,1),"")</f>
-        <v>4150</v>
+        <f t="shared" si="1"/>
+        <v>4382</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" ref="G40:G42" si="14">IF(MOD(L40-$B$4,2)=1,8+M40,M40)</f>
+        <f>IF(MOD(L40-$B$4,2)=1,8+M40,M40)</f>
         <v>8</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" ref="H40:H57" si="15">DEC2HEX(E40*HEX2DEC(1000000) +G40*HEX2DEC(10000) +F40)</f>
-        <v>2081036</v>
+        <f t="shared" si="2"/>
+        <v>208111E</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="I40:I42" si="16">HEX2DEC(H40)</f>
-        <v>34082870</v>
+        <f t="shared" si="3"/>
+        <v>34083102</v>
       </c>
       <c r="K40">
-        <f t="shared" ref="K40:K42" si="17">IF(Q40&lt;&gt;"",$B$3+Q40*116,"")</f>
-        <v>521706</v>
+        <f>IF(Q40&lt;&gt;"",$B$3+Q40*116,"")</f>
+        <v>522170</v>
       </c>
       <c r="L40">
-        <f t="shared" ref="L40:L42" si="18">IF(J40&lt;&gt;"",J40,K40)</f>
-        <v>521706</v>
+        <f t="shared" si="4"/>
+        <v>522170</v>
       </c>
       <c r="N40" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="O40" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="P40" t="s">
         <v>38</v>
       </c>
       <c r="Q40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" ref="R40:R57" si="19">IF(P40="*",D40&amp;" : INT :="&amp;(Q40+1)&amp;";","")</f>
-        <v>FCy01 : INT :=4;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>CCy2 : INT :=8;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>33</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
       <c r="F41" s="1">
-        <f t="shared" si="13"/>
-        <v>4208</v>
+        <f t="shared" si="1"/>
+        <v>4440</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(MOD(L41-$B$4,2)=1,8+M41,M41)</f>
         <v>8</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="15"/>
-        <v>2081070</v>
+        <f t="shared" si="2"/>
+        <v>2081158</v>
       </c>
       <c r="I41">
-        <f t="shared" si="16"/>
-        <v>34082928</v>
+        <f t="shared" si="3"/>
+        <v>34083160</v>
       </c>
       <c r="K41">
-        <f t="shared" si="17"/>
-        <v>521822</v>
+        <f>IF(Q41&lt;&gt;"",$B$3+Q41*116,"")</f>
+        <v>522286</v>
       </c>
       <c r="L41">
-        <f t="shared" si="18"/>
-        <v>521822</v>
+        <f t="shared" si="4"/>
+        <v>522286</v>
       </c>
       <c r="N41" t="s">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="O41" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P41" t="s">
         <v>38</v>
       </c>
       <c r="Q41">
+        <v>8</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="5"/>
+        <v>FCy04 : INT :=9;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
         <v>4</v>
       </c>
-      <c r="R41" t="str">
-        <f t="shared" si="19"/>
-        <v>FCy02 : INT :=5;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>34</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="13"/>
-        <v>4266</v>
+        <f t="shared" si="1"/>
+        <v>4498</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(MOD(L42-$B$4,2)=1,8+M42,M42)</f>
         <v>8</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="15"/>
-        <v>20810AA</v>
+        <f t="shared" si="2"/>
+        <v>2081192</v>
       </c>
       <c r="I42">
-        <f t="shared" si="16"/>
-        <v>34082986</v>
+        <f t="shared" si="3"/>
+        <v>34083218</v>
       </c>
       <c r="K42">
-        <f t="shared" si="17"/>
-        <v>521938</v>
+        <f>IF(Q42&lt;&gt;"",$B$3+Q42*116,"")</f>
+        <v>522402</v>
       </c>
       <c r="L42">
-        <f t="shared" si="18"/>
-        <v>521938</v>
+        <f t="shared" si="4"/>
+        <v>522402</v>
       </c>
       <c r="N42" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="O42" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="P42" t="s">
         <v>38</v>
       </c>
       <c r="Q42">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="19"/>
-        <v>FCy03 : INT :=6;</v>
+        <f t="shared" si="5"/>
+        <v>ECy01 : INT :=10;</v>
       </c>
     </row>
     <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -6970,35 +6958,35 @@
         <v>4</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E43:E57" si="10">IF(P43="",$B$2,$B$2)</f>
         <v>2</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="F43:F57" si="11">IF(L43&lt;&gt;"",FLOOR((L43-$B$4)/2,1),"")</f>
         <v/>
       </c>
       <c r="G43" s="1" t="e">
-        <f t="shared" ref="G43:G52" si="20">IF(MOD(F43,2)=1,8+M43,M43)</f>
+        <f t="shared" ref="G43:G52" si="12">IF(MOD(F43,2)=1,8+M43,M43)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H43" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H43:H57" si="13">DEC2HEX(E43*HEX2DEC(1000000) +G43*HEX2DEC(10000) +F43)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I43" t="e">
-        <f t="shared" ref="I43:I52" si="21">HEX2DEC(H43)</f>
+        <f t="shared" ref="I43:I52" si="14">HEX2DEC(H43)</f>
         <v>#VALUE!</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" ref="K43:K52" si="22">IF(Q43&lt;&gt;"",$B$3+Q43*136,"")</f>
+        <f t="shared" ref="K43:K52" si="15">IF(Q43&lt;&gt;"",$B$3+Q43*136,"")</f>
         <v/>
       </c>
       <c r="L43" t="str">
-        <f t="shared" ref="L43:L52" si="23">IF(J43&lt;&gt;"",J43,K43)</f>
+        <f t="shared" ref="L43:L52" si="16">IF(J43&lt;&gt;"",J43,K43)</f>
         <v/>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="R43:R57" si="17">IF(P43="*",D43&amp;" : INT :="&amp;(Q43+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -7013,35 +7001,35 @@
         <v>5</v>
       </c>
       <c r="E44" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G44" s="1" t="e">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="F44" s="1" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H44" t="e">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G44" s="1" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H44" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I44" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K44" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I44" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K44" t="str">
-        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -7056,41 +7044,41 @@
         <v>9</v>
       </c>
       <c r="E45" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="11"/>
+        <v>4393</v>
+      </c>
+      <c r="G45" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="F45" s="1">
+        <v>8</v>
+      </c>
+      <c r="H45" t="str">
         <f t="shared" si="13"/>
-        <v>4393</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="15"/>
         <v>2081129</v>
       </c>
       <c r="I45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>34083113</v>
       </c>
       <c r="J45">
         <v>522192</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>522192</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -7105,41 +7093,41 @@
         <v>10</v>
       </c>
       <c r="E46" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="11"/>
+        <v>4393</v>
+      </c>
+      <c r="G46" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="F46" s="1">
+        <v>9</v>
+      </c>
+      <c r="H46" t="str">
         <f t="shared" si="13"/>
-        <v>4393</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="20"/>
-        <v>9</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="15"/>
         <v>2091129</v>
       </c>
       <c r="I46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>34148649</v>
       </c>
       <c r="J46">
         <v>522192</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>522192</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -7154,41 +7142,41 @@
         <v>11</v>
       </c>
       <c r="E47" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="11"/>
+        <v>4393</v>
+      </c>
+      <c r="G47" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="F47" s="1">
+        <v>10</v>
+      </c>
+      <c r="H47" t="str">
         <f t="shared" si="13"/>
-        <v>4393</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="20"/>
-        <v>10</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="15"/>
         <v>20A1129</v>
       </c>
       <c r="I47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>34214185</v>
       </c>
       <c r="J47">
         <v>522192</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>522192</v>
       </c>
       <c r="M47">
         <v>2</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -7203,41 +7191,41 @@
         <v>12</v>
       </c>
       <c r="E48" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="11"/>
+        <v>4393</v>
+      </c>
+      <c r="G48" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="F48" s="1">
+        <v>11</v>
+      </c>
+      <c r="H48" t="str">
         <f t="shared" si="13"/>
-        <v>4393</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="15"/>
         <v>20B1129</v>
       </c>
       <c r="I48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>34279721</v>
       </c>
       <c r="J48">
         <v>522192</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>522192</v>
       </c>
       <c r="M48">
         <v>3</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -7252,41 +7240,41 @@
         <v>13</v>
       </c>
       <c r="E49" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="11"/>
+        <v>4329</v>
+      </c>
+      <c r="G49" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="F49" s="1">
+        <v>10</v>
+      </c>
+      <c r="H49" t="str">
         <f t="shared" si="13"/>
-        <v>4329</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" si="20"/>
-        <v>10</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="15"/>
         <v>20A10E9</v>
       </c>
       <c r="I49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>34214121</v>
       </c>
       <c r="J49">
         <v>522063</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>522063</v>
       </c>
       <c r="M49">
         <v>2</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -7301,41 +7289,41 @@
         <v>14</v>
       </c>
       <c r="E50" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="11"/>
+        <v>4329</v>
+      </c>
+      <c r="G50" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="F50" s="1">
+        <v>11</v>
+      </c>
+      <c r="H50" t="str">
         <f t="shared" si="13"/>
-        <v>4329</v>
-      </c>
-      <c r="G50" s="1">
-        <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="15"/>
         <v>20B10E9</v>
       </c>
       <c r="I50">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>34279657</v>
       </c>
       <c r="J50">
         <v>522063</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>522063</v>
       </c>
       <c r="M50">
         <v>3</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -7350,41 +7338,41 @@
         <v>15</v>
       </c>
       <c r="E51" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="11"/>
+        <v>4329</v>
+      </c>
+      <c r="G51" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="F51" s="1">
+        <v>8</v>
+      </c>
+      <c r="H51" t="str">
         <f t="shared" si="13"/>
-        <v>4329</v>
-      </c>
-      <c r="G51" s="1">
-        <f t="shared" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="15"/>
         <v>20810E9</v>
       </c>
       <c r="I51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>34083049</v>
       </c>
       <c r="J51">
         <v>522063</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>522063</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -7399,41 +7387,41 @@
         <v>16</v>
       </c>
       <c r="E52" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="11"/>
+        <v>4329</v>
+      </c>
+      <c r="G52" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="F52" s="1">
+        <v>9</v>
+      </c>
+      <c r="H52" t="str">
         <f t="shared" si="13"/>
-        <v>4329</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" si="20"/>
-        <v>9</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="15"/>
         <v>20910E9</v>
       </c>
       <c r="I52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>34148585</v>
       </c>
       <c r="J52">
         <v>522063</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>522063</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -7451,44 +7439,44 @@
         <v>66</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F53" s="1">
+        <f t="shared" si="11"/>
+        <v>3966</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" ref="G53:G57" si="18">IF(MOD(L53-$B$4,2)=1,8+M53,M53)</f>
+        <v>6</v>
+      </c>
+      <c r="H53" t="str">
         <f t="shared" si="13"/>
-        <v>3966</v>
-      </c>
-      <c r="G53" s="1">
-        <f t="shared" ref="G53:G57" si="24">IF(MOD(L53-$B$4,2)=1,8+M53,M53)</f>
-        <v>6</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="15"/>
         <v>2060F7E</v>
       </c>
       <c r="I53">
-        <f t="shared" ref="I53:I57" si="25">HEX2DEC(H53)</f>
+        <f t="shared" ref="I53:I57" si="19">HEX2DEC(H53)</f>
         <v>33951614</v>
       </c>
       <c r="J53">
         <v>521337</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" ref="K53:K57" si="26">IF(Q53&lt;&gt;"",$B$3+Q53*116,"")</f>
+        <f t="shared" ref="K53:K57" si="20">IF(Q53&lt;&gt;"",$B$3+Q53*116,"")</f>
         <v/>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L57" si="27">IF(J53&lt;&gt;"",J53,K53)</f>
+        <f t="shared" ref="L53:L57" si="21">IF(J53&lt;&gt;"",J53,K53)</f>
         <v>521337</v>
       </c>
       <c r="M53">
         <v>6</v>
       </c>
       <c r="O53" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -7506,44 +7494,44 @@
         <v>68</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F54" s="1">
+        <f t="shared" si="11"/>
+        <v>3966</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="H54" t="str">
         <f t="shared" si="13"/>
-        <v>3966</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="15"/>
         <v>2080F7E</v>
       </c>
       <c r="I54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>34082686</v>
       </c>
       <c r="J54">
         <v>521338</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>521338</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -7558,41 +7546,41 @@
         <v>64</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F55" s="1">
+        <f t="shared" si="11"/>
+        <v>3965</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="H55" t="str">
         <f t="shared" si="13"/>
-        <v>3965</v>
-      </c>
-      <c r="G55" s="1">
-        <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="15"/>
         <v>2080F7D</v>
       </c>
       <c r="I55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>34082685</v>
       </c>
       <c r="J55">
         <v>521336</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L55">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>521336</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -7607,41 +7595,41 @@
         <v>65</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F56" s="1">
+        <f t="shared" si="11"/>
+        <v>3965</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="H56" t="str">
         <f t="shared" si="13"/>
-        <v>3965</v>
-      </c>
-      <c r="G56" s="1">
-        <f t="shared" si="24"/>
-        <v>9</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="15"/>
         <v>2090F7D</v>
       </c>
       <c r="I56">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>34148221</v>
       </c>
       <c r="J56">
         <v>521336</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L56">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>521336</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -7656,56 +7644,56 @@
         <v>67</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F57" s="1">
+        <f t="shared" si="11"/>
+        <v>3966</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="H57" t="str">
         <f t="shared" si="13"/>
-        <v>3966</v>
-      </c>
-      <c r="G57" s="1">
-        <f t="shared" si="24"/>
-        <v>7</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="15"/>
         <v>2070F7E</v>
       </c>
       <c r="I57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>34017150</v>
       </c>
       <c r="J57">
         <v>521337</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L57">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>521337</v>
       </c>
       <c r="M57">
         <v>7</v>
       </c>
       <c r="O57" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A7:R57" xr:uid="{8998380E-F444-46A0-9507-09ED559E5F46}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="20+DO1"/>
-      </filters>
+    <filterColumn colId="15">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
-    <sortState ref="A8:R23">
-      <sortCondition ref="C7:C57"/>
+    <sortState ref="A8:R42">
+      <sortCondition ref="Q7:Q57"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7717,8 +7705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7731,7 +7719,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C1">
         <f>COUNTA(A3:A15)</f>
@@ -7752,7 +7740,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -7886,10 +7874,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -7904,10 +7892,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -7922,10 +7910,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -7940,10 +7928,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -7958,10 +7946,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D14">
         <v>40</v>
@@ -7976,10 +7964,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D15">
         <f>360/20</f>
@@ -7990,7 +7978,7 @@
         <v>CMs2Rotator : INT :=13;</v>
       </c>
       <c r="H15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -8001,18 +7989,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1889F4C6-9650-4581-AFFD-6325DED49E0B}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -8020,19 +8011,19 @@
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -8053,14 +8044,14 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F2" t="str">
         <f>B2&amp;"_"&amp;E2</f>
         <v>Ms1_Fast</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -8078,14 +8069,14 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F59" si="0">B3&amp;"_"&amp;E3</f>
+        <f t="shared" ref="F3:F64" si="0">B3&amp;"_"&amp;E3</f>
         <v>Ms1_Slow</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -8093,24 +8084,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <f>INDEX(Motion!A:A,MATCH(Points!B4,Motion!B:B,0),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>Ms2_Hit</v>
+        <v>Ms5_Hit</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8118,24 +8109,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <f>INDEX(Motion!A:A,MATCH(Points!B5,Motion!B:B,0),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>Ms2_Release</v>
+        <v>Ms5_Release</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -8143,24 +8134,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <f>INDEX(Motion!A:A,MATCH(Points!B6,Motion!B:B,0),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>Ms2_Working</v>
+        <v>Ms5_Working</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -8168,24 +8159,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <f>INDEX(Motion!A:A,MATCH(Points!B7,Motion!B:B,0),0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>Ms3_Hit</v>
+        <v>Ms6_Hit</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -8193,24 +8184,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <f>INDEX(Motion!A:A,MATCH(Points!B8,Motion!B:B,0),0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>Ms3_Release</v>
+        <v>Ms6_Release</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -8218,24 +8209,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <f>INDEX(Motion!A:A,MATCH(Points!B9,Motion!B:B,0),0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>Ms3_Working</v>
+        <v>Ms6_Working</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -8243,24 +8234,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C10">
         <f>INDEX(Motion!A:A,MATCH(Points!B10,Motion!B:B,0),0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>Ms4_Hit</v>
+        <v>Ms7_Hit</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -8268,24 +8259,24 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C11">
         <f>INDEX(Motion!A:A,MATCH(Points!B11,Motion!B:B,0),0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>Ms4_Release</v>
+        <v>Ms7_Release</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -8293,24 +8284,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <f>INDEX(Motion!A:A,MATCH(Points!B12,Motion!B:B,0),0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>Ms4_Working</v>
+        <v>Ms7_Working</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -8318,24 +8309,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <f>INDEX(Motion!A:A,MATCH(Points!B13,Motion!B:B,0),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>Ms5_Hit</v>
+        <v>Ms2_Hit</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -8343,24 +8334,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <f>INDEX(Motion!A:A,MATCH(Points!B14,Motion!B:B,0),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>Ms5_Working</v>
+        <v>Ms2_Working</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -8368,24 +8359,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <f>INDEX(Motion!A:A,MATCH(Points!B15,Motion!B:B,0),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>Ms5_SWING_1</v>
+        <v>Ms3_Hit</v>
       </c>
       <c r="G15" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -8393,24 +8384,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <f>INDEX(Motion!A:A,MATCH(Points!B16,Motion!B:B,0),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>Ms5_SWING_2</v>
+        <v>Ms3_Working</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -8418,24 +8409,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <f>INDEX(Motion!A:A,MATCH(Points!B17,Motion!B:B,0),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>Ms5_SWING_3</v>
+        <v>Ms4_Hit</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -8443,24 +8434,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <f>INDEX(Motion!A:A,MATCH(Points!B18,Motion!B:B,0),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>Ms5_SWING_4</v>
+        <v>Ms4_Working</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -8468,24 +8459,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="C19">
         <f>INDEX(Motion!A:A,MATCH(Points!B19,Motion!B:B,0),0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>138</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>Ms5_SWING_5</v>
+        <v>FMs1_Ready</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -8493,24 +8484,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="C20">
         <f>INDEX(Motion!A:A,MATCH(Points!B20,Motion!B:B,0),0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>139</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>Ms5_SWING_6</v>
+        <v>FMs1_FOV_1</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -8518,24 +8509,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="C21">
         <f>INDEX(Motion!A:A,MATCH(Points!B21,Motion!B:B,0),0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
         <v>140</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>Ms5_SWING_7</v>
+        <v>FMs1_FOV_2</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -8543,24 +8534,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="C22">
         <f>INDEX(Motion!A:A,MATCH(Points!B22,Motion!B:B,0),0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>141</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>Ms5_SWING_8</v>
+        <v>FMs1_FOV_3</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -8568,24 +8559,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="C23">
         <f>INDEX(Motion!A:A,MATCH(Points!B23,Motion!B:B,0),0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>Ms6_Hit</v>
+        <v>FMs1_FOV_4</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -8593,24 +8584,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="C24">
         <f>INDEX(Motion!A:A,MATCH(Points!B24,Motion!B:B,0),0)</f>
+        <v>7</v>
+      </c>
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>Ms6_Working</v>
+        <v>FMs1_FOV_5</v>
       </c>
       <c r="G24" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -8618,24 +8609,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="C25">
         <f>INDEX(Motion!A:A,MATCH(Points!B25,Motion!B:B,0),0)</f>
+        <v>7</v>
+      </c>
+      <c r="D25">
         <v>6</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>Ms7_Hit</v>
+        <v>FMs1_FOV_6</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -8643,24 +8634,24 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="C26">
         <f>INDEX(Motion!A:A,MATCH(Points!B26,Motion!B:B,0),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>Ms7_Working</v>
+        <v>FMs1_FOV_7</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -8668,24 +8659,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" t="e">
+        <v>217</v>
+      </c>
+      <c r="C27">
         <f>INDEX(Motion!A:A,MATCH(Points!B27,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>AMs1_Ready</v>
+        <v>FMs1_FOV_8</v>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -8693,24 +8684,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" t="e">
+        <v>218</v>
+      </c>
+      <c r="C28">
         <f>INDEX(Motion!A:A,MATCH(Points!B28,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>AMs1_SWING_1</v>
+        <v>FMs2_ReadyPick</v>
       </c>
       <c r="G28" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -8718,24 +8709,24 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" t="e">
+        <v>218</v>
+      </c>
+      <c r="C29">
         <f>INDEX(Motion!A:A,MATCH(Points!B29,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>AMs1_SWING_2</v>
+        <v>FMs2_Pick</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -8743,24 +8734,24 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" t="e">
+        <v>218</v>
+      </c>
+      <c r="C30">
         <f>INDEX(Motion!A:A,MATCH(Points!B30,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>AMs1_SWING_3</v>
+        <v>FMs2_Ready</v>
       </c>
       <c r="G30" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -8768,24 +8759,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" t="e">
+        <v>218</v>
+      </c>
+      <c r="C31">
         <f>INDEX(Motion!A:A,MATCH(Points!B31,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>AMs1_SWING_4</v>
+        <v>FMs2_FOV_1</v>
       </c>
       <c r="G31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -8793,24 +8784,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" t="e">
+        <v>218</v>
+      </c>
+      <c r="C32">
         <f>INDEX(Motion!A:A,MATCH(Points!B32,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>AMs1_SWING_5</v>
+        <v>FMs2_FOV_2</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -8818,24 +8809,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" t="e">
+        <v>218</v>
+      </c>
+      <c r="C33">
         <f>INDEX(Motion!A:A,MATCH(Points!B33,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>AMs1_SWING_6</v>
+        <v>FMs2_FOV_3</v>
       </c>
       <c r="G33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -8843,24 +8834,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" t="e">
+        <v>218</v>
+      </c>
+      <c r="C34">
         <f>INDEX(Motion!A:A,MATCH(Points!B34,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>AMs1_SWING_7</v>
+        <v>FMs2_FOV_4</v>
       </c>
       <c r="G34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -8868,24 +8859,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" t="e">
+        <v>218</v>
+      </c>
+      <c r="C35">
         <f>INDEX(Motion!A:A,MATCH(Points!B35,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>AMs1_SWING_8</v>
+        <v>FMs2_FOV_5</v>
       </c>
       <c r="G35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -8893,24 +8884,24 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" t="e">
+        <v>218</v>
+      </c>
+      <c r="C36">
         <f>INDEX(Motion!A:A,MATCH(Points!B36,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>AMs2_Ready</v>
+        <v>FMs2_FOV_6</v>
       </c>
       <c r="G36" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -8918,24 +8909,24 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" t="e">
+        <v>218</v>
+      </c>
+      <c r="C37">
         <f>INDEX(Motion!A:A,MATCH(Points!B37,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>AMs2_FOV_1</v>
+        <v>FMs2_FOV_7</v>
       </c>
       <c r="G37" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -8943,24 +8934,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" t="e">
+        <v>218</v>
+      </c>
+      <c r="C38">
         <f>INDEX(Motion!A:A,MATCH(Points!B38,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>AMs2_FOV_2</v>
+        <v>FMs2_FOV_8</v>
       </c>
       <c r="G38" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -8968,24 +8959,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" t="e">
+        <v>109</v>
+      </c>
+      <c r="C39">
         <f>INDEX(Motion!A:A,MATCH(Points!B39,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>AMs2_FOV_3</v>
+        <v>CMs1_In</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -8993,24 +8984,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" t="e">
+        <v>109</v>
+      </c>
+      <c r="C40">
         <f>INDEX(Motion!A:A,MATCH(Points!B40,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>AMs2_FOV_4</v>
+        <v>CMs1_Out</v>
       </c>
       <c r="G40" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -9018,24 +9009,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" t="e">
+        <v>109</v>
+      </c>
+      <c r="C41">
         <f>INDEX(Motion!A:A,MATCH(Points!B41,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>AMs2_FOV_5</v>
+        <v>CMs1_Work1</v>
       </c>
       <c r="G41" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -9043,24 +9034,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" t="e">
+        <v>109</v>
+      </c>
+      <c r="C42">
         <f>INDEX(Motion!A:A,MATCH(Points!B42,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>AMs2_FOV_6</v>
+        <v>CMs1_Work2</v>
       </c>
       <c r="G42" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -9070,22 +9061,22 @@
       <c r="B43" t="s">
         <v>110</v>
       </c>
-      <c r="C43" t="e">
+      <c r="C43">
         <f>INDEX(Motion!A:A,MATCH(Points!B43,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>AMs2_FOV_7</v>
+        <v>CMs2_In</v>
       </c>
       <c r="G43" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -9095,22 +9086,22 @@
       <c r="B44" t="s">
         <v>110</v>
       </c>
-      <c r="C44" t="e">
+      <c r="C44">
         <f>INDEX(Motion!A:A,MATCH(Points!B44,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>AMs2_FOV_8</v>
+        <v>CMs2_Out</v>
       </c>
       <c r="G44" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -9118,24 +9109,24 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" t="e">
+        <v>110</v>
+      </c>
+      <c r="C45">
         <f>INDEX(Motion!A:A,MATCH(Points!B45,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>MsB1_Fast</v>
+        <v>CMs2_Mutual</v>
       </c>
       <c r="G45" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -9143,24 +9134,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" t="e">
+        <v>219</v>
+      </c>
+      <c r="C46">
         <f>INDEX(Motion!A:A,MATCH(Points!B46,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>MsB1_Slow</v>
+        <v>EMs1_Ready</v>
       </c>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -9168,24 +9159,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" t="e">
+        <v>219</v>
+      </c>
+      <c r="C47">
         <f>INDEX(Motion!A:A,MATCH(Points!B47,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>MsB2_Hit</v>
+        <v>EMs1_FOV_1</v>
       </c>
       <c r="G47" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -9193,24 +9184,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" t="e">
+        <v>219</v>
+      </c>
+      <c r="C48">
         <f>INDEX(Motion!A:A,MATCH(Points!B48,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>MsB2_Release</v>
+        <v>EMs1_FOV_2</v>
       </c>
       <c r="G48" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -9218,24 +9209,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" t="e">
+        <v>219</v>
+      </c>
+      <c r="C49">
         <f>INDEX(Motion!A:A,MATCH(Points!B49,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>MsB2_Working</v>
+        <v>EMs1_FOV_3</v>
       </c>
       <c r="G49" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -9243,24 +9234,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" t="e">
+        <v>219</v>
+      </c>
+      <c r="C50">
         <f>INDEX(Motion!A:A,MATCH(Points!B50,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>MsB3_Hit</v>
+        <v>EMs1_FOV_4</v>
       </c>
       <c r="G50" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -9268,24 +9259,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" t="e">
+        <v>219</v>
+      </c>
+      <c r="C51">
         <f>INDEX(Motion!A:A,MATCH(Points!B51,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>MsB3_Release</v>
+        <v>EMs1_FOV_5</v>
       </c>
       <c r="G51" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -9293,24 +9284,24 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" t="e">
+        <v>219</v>
+      </c>
+      <c r="C52">
         <f>INDEX(Motion!A:A,MATCH(Points!B52,Motion!B:B,0),0)</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>MsB3_Working</v>
+        <v>EMs1_FOV_6</v>
       </c>
       <c r="G52" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -9318,24 +9309,24 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="C53">
         <f>INDEX(Motion!A:A,MATCH(Points!B53,Motion!B:B,0),0)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>CMs1_In</v>
+        <v>EMs1_FOV_7</v>
       </c>
       <c r="G53" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -9343,24 +9334,24 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="C54">
         <f>INDEX(Motion!A:A,MATCH(Points!B54,Motion!B:B,0),0)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>CMs1_Out</v>
+        <v>EMs1_FOV_8</v>
       </c>
       <c r="G54" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -9368,24 +9359,24 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="C55">
         <f>INDEX(Motion!A:A,MATCH(Points!B55,Motion!B:B,0),0)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>CMs1_Work1</v>
+        <v>EMs2_Ready</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -9393,24 +9384,24 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="C56">
         <f>INDEX(Motion!A:A,MATCH(Points!B56,Motion!B:B,0),0)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>CMs1_Work2</v>
+        <v>EMs2_FOV_1</v>
       </c>
       <c r="G56" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -9418,24 +9409,24 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="C57">
         <f>INDEX(Motion!A:A,MATCH(Points!B57,Motion!B:B,0),0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>CMs2_In</v>
+        <v>EMs2_FOV_2</v>
       </c>
       <c r="G57" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -9443,24 +9434,24 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="C58">
         <f>INDEX(Motion!A:A,MATCH(Points!B58,Motion!B:B,0),0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>CMs2_Out</v>
+        <v>EMs2_FOV_3</v>
       </c>
       <c r="G58" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -9468,24 +9459,149 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="C59">
         <f>INDEX(Motion!A:A,MATCH(Points!B59,Motion!B:B,0),0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>EMs2_FOV_4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60">
+        <f>INDEX(Motion!A:A,MATCH(Points!B60,Motion!B:B,0),0)</f>
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>EMs2_FOV_5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61">
+        <f>INDEX(Motion!A:A,MATCH(Points!B61,Motion!B:B,0),0)</f>
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>EMs2_FOV_6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62">
+        <f>INDEX(Motion!A:A,MATCH(Points!B62,Motion!B:B,0),0)</f>
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>EMs2_FOV_7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63">
+        <f>INDEX(Motion!A:A,MATCH(Points!B63,Motion!B:B,0),0)</f>
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>146</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>EMs2_FOV_8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <f>INDEX(Motion!A:A,MATCH(Points!B64,Motion!B:B,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D64">
         <v>2</v>
       </c>
-      <c r="E59" t="s">
-        <v>176</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>CMs2_Mutual</v>
-      </c>
-      <c r="G59" t="s">
-        <v>177</v>
+      <c r="E64" t="s">
+        <v>254</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>Ms1_Comp</v>
+      </c>
+      <c r="G64" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/C1A2/iotable.xlsx
+++ b/C1A2/iotable.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182D24F3-0A5A-4692-B4C0-C46E89128A94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BABDADA-900C-4276-8BDD-53CB7F9AE66F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
     <sheet name="Output" sheetId="12" r:id="rId2"/>
-    <sheet name="Motion" sheetId="5" r:id="rId3"/>
-    <sheet name="Points" sheetId="13" r:id="rId4"/>
-    <sheet name="SIGNALS" sheetId="6" r:id="rId5"/>
-    <sheet name="CYLINDER SEN A" sheetId="7" r:id="rId6"/>
-    <sheet name="CYLINDER SEN B" sheetId="8" r:id="rId7"/>
-    <sheet name="CYLINDER_ACT_B" sheetId="9" r:id="rId8"/>
+    <sheet name="Units" sheetId="14" r:id="rId3"/>
+    <sheet name="Motion" sheetId="5" r:id="rId4"/>
+    <sheet name="Points" sheetId="13" r:id="rId5"/>
+    <sheet name="SIGNALS" sheetId="6" r:id="rId6"/>
+    <sheet name="CYLINDER SEN A" sheetId="7" r:id="rId7"/>
+    <sheet name="CYLINDER SEN B" sheetId="8" r:id="rId8"/>
+    <sheet name="CYLINDER_ACT_B" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input!$A$9:$U$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Motion!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Motion!$A$2:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Output!$A$7:$R$57</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="266">
   <si>
     <t>Channel</t>
   </si>
@@ -802,6 +803,36 @@
   </si>
   <si>
     <t>補償</t>
+  </si>
+  <si>
+    <t>LinearTransporter</t>
+  </si>
+  <si>
+    <t>進料移載</t>
+  </si>
+  <si>
+    <t>ConveyorMaster</t>
+  </si>
+  <si>
+    <t>輸送帶</t>
+  </si>
+  <si>
+    <t>LifterCellularA1</t>
+  </si>
+  <si>
+    <t>LifterCellularA2</t>
+  </si>
+  <si>
+    <t>LifterCellularA3</t>
+  </si>
+  <si>
+    <t>輸送帶升降A1</t>
+  </si>
+  <si>
+    <t>輸送帶升降A2</t>
+  </si>
+  <si>
+    <t>輸送帶升降A3</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1282,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O10" sqref="O10:O42"/>
     </sheetView>
   </sheetViews>
@@ -7702,6 +7733,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE8C061-4C46-466E-9D80-C1645CFE869B}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -7987,7 +8122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1889F4C6-9650-4581-AFFD-6325DED49E0B}">
   <dimension ref="A1:G64"/>
   <sheetViews>
@@ -9609,7 +9744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69CFC3F-26AD-4FF9-8B91-56700D135D7F}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -9794,7 +9929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AD2CBD-F75F-4320-8EF3-6C46AE9359C1}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -9974,7 +10109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBD1E14-95B0-42A9-B01D-B8348254E65B}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -10154,7 +10289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9076A2-E6C7-41AF-9BDA-E4F0F1478AA5}">
   <dimension ref="A1:B19"/>
   <sheetViews>

--- a/C1A2/iotable.xlsx
+++ b/C1A2/iotable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7C32CA-7E9D-4414-B216-250B334AD8A1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB996D43-468D-42B0-859A-706B61AB4E5D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -1273,7 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
@@ -5165,8 +5165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFD5AD-95E3-457F-903E-F0D470C50CCA}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8:R57"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/C1A2/iotable.xlsx
+++ b/C1A2/iotable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB996D43-468D-42B0-859A-706B61AB4E5D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD49442-E346-4459-9EA0-7ED7A80BB053}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input!$A$9:$U$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Motion!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Output!$A$7:$R$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Output!$A$7:$R$57</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -1271,10 +1271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O78" sqref="O78"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1314,7 @@
       </c>
       <c r="J2">
         <f>K10-B6</f>
-        <v>1759</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1321,7 +1322,7 @@
         <v>44</v>
       </c>
       <c r="B3">
-        <v>521360</v>
+        <v>529940</v>
       </c>
       <c r="H3">
         <f>QUOTIENT(F10,65535)</f>
@@ -1333,7 +1334,7 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <v>521364</v>
+        <v>529944</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1341,7 +1342,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>523095</v>
+        <v>531211</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1350,7 +1351,7 @@
       </c>
       <c r="B6">
         <f>MIN(L:L)</f>
-        <v>521336</v>
+        <v>529920</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>59</v>
@@ -1365,7 +1366,7 @@
       </c>
       <c r="B7">
         <f>MIN(B3:B4)</f>
-        <v>521360</v>
+        <v>529940</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1461,27 +1462,27 @@
       </c>
       <c r="F10" s="1">
         <f>IF(L10&lt;&gt;"",FLOOR((L10-MIN(L:L))/2,1),"")</f>
-        <v>879</v>
+        <v>645</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ref="G10:G41" si="1">IF(MOD(L10-$B$6,2)=1,8+M10,M10)</f>
+        <f t="shared" ref="G10" si="1">IF(MOD(L10-$B$6,2)=1,8+M10,M10)</f>
         <v>8</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ref="H10:H41" si="2">DEC2HEX(E10*HEX2DEC(1000000) +G10*HEX2DEC(10000) +F10)</f>
-        <v>108036F</v>
+        <f t="shared" ref="H10" si="2">DEC2HEX(E10*HEX2DEC(1000000) +G10*HEX2DEC(10000) +F10)</f>
+        <v>1080285</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I41" si="3">HEX2DEC(H10)</f>
-        <v>17302383</v>
+        <f t="shared" ref="I10:I14" si="3">HEX2DEC(H10)</f>
+        <v>17302149</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K36" si="4">IF(Q10&lt;&gt;"",Q10*116+$B$3,IF(R10&lt;&gt;"",R10*116+$B$3,IF(T10&lt;&gt;"",T10*68+$B$5,"")))</f>
-        <v>523095</v>
+        <f t="shared" ref="K10" si="4">IF(Q10&lt;&gt;"",Q10*116+$B$3,IF(R10&lt;&gt;"",R10*116+$B$3,IF(T10&lt;&gt;"",T10*68+$B$5,"")))</f>
+        <v>531211</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L41" si="5">IF(J10&lt;&gt;"",J10,K10)</f>
-        <v>523095</v>
+        <f>IF(AND(J10&lt;&gt;"",D10&lt;&gt;""),J10,K10)</f>
+        <v>531211</v>
       </c>
       <c r="O10" t="s">
         <v>175</v>
@@ -1515,28 +1516,28 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ref="F11:F74" si="6">IF(L11&lt;&gt;"",FLOOR((L11-MIN(L:L))/2,1),"")</f>
-        <v>913</v>
+        <f t="shared" ref="F11:F74" si="5">IF(L11&lt;&gt;"",FLOOR((L11-MIN(L:L))/2,1),"")</f>
+        <v>679</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:G74" si="7">IF(MOD(L11-$B$6,2)=1,8+M11,M11)</f>
+        <f t="shared" ref="G11:G74" si="6">IF(MOD(L11-$B$6,2)=1,8+M11,M11)</f>
         <v>8</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" ref="H11:H74" si="8">DEC2HEX(E11*HEX2DEC(1000000) +G11*HEX2DEC(10000) +F11)</f>
-        <v>1080391</v>
+        <f t="shared" ref="H11:H74" si="7">DEC2HEX(E11*HEX2DEC(1000000) +G11*HEX2DEC(10000) +F11)</f>
+        <v>10802A7</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I74" si="9">HEX2DEC(H11)</f>
-        <v>17302417</v>
+        <f t="shared" si="3"/>
+        <v>17302183</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K74" si="10">IF(Q11&lt;&gt;"",Q11*116+$B$3,IF(R11&lt;&gt;"",R11*116+$B$3,IF(T11&lt;&gt;"",T11*68+$B$5,"")))</f>
-        <v>523163</v>
+        <f t="shared" ref="K11:K74" si="8">IF(Q11&lt;&gt;"",Q11*116+$B$3,IF(R11&lt;&gt;"",R11*116+$B$3,IF(T11&lt;&gt;"",T11*68+$B$5,"")))</f>
+        <v>531279</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L74" si="11">IF(J11&lt;&gt;"",J11,K11)</f>
-        <v>523163</v>
+        <f t="shared" ref="L11:L74" si="9">IF(AND(J11&lt;&gt;"",D11&lt;&gt;""),J11,K11)</f>
+        <v>531279</v>
       </c>
       <c r="O11" t="s">
         <v>176</v>
@@ -1548,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" ref="U11:U41" si="12">IF(S11="*",D11&amp;" : INT := "&amp;(T11+1)&amp;";","")</f>
+        <f t="shared" ref="U11:U41" si="10">IF(S11="*",D11&amp;" : INT := "&amp;(T11+1)&amp;";","")</f>
         <v>H2Green : INT := 2;</v>
       </c>
     </row>
@@ -1570,28 +1571,28 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="6"/>
-        <v>947</v>
+        <f t="shared" si="5"/>
+        <v>713</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="8"/>
-        <v>10803B3</v>
+        <f t="shared" si="7"/>
+        <v>10802C9</v>
       </c>
       <c r="I12">
+        <f t="shared" si="3"/>
+        <v>17302217</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>531347</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="9"/>
-        <v>17302451</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="10"/>
-        <v>523231</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="11"/>
-        <v>523231</v>
+        <v>531347</v>
       </c>
       <c r="O12" t="s">
         <v>177</v>
@@ -1603,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>H3Orange : INT := 3;</v>
       </c>
     </row>
@@ -1625,28 +1626,28 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="6"/>
-        <v>981</v>
+        <f t="shared" si="5"/>
+        <v>747</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="8"/>
-        <v>10803D5</v>
+        <f t="shared" si="7"/>
+        <v>10802EB</v>
       </c>
       <c r="I13">
+        <f t="shared" si="3"/>
+        <v>17302251</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>531415</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="9"/>
-        <v>17302485</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="10"/>
-        <v>523299</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="11"/>
-        <v>523299</v>
+        <v>531415</v>
       </c>
       <c r="O13" t="s">
         <v>178</v>
@@ -1658,7 +1659,7 @@
         <v>3</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>H4White : INT := 4;</v>
       </c>
     </row>
@@ -1680,28 +1681,28 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="6"/>
-        <v>1015</v>
+        <f t="shared" si="5"/>
+        <v>781</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="8"/>
-        <v>10803F7</v>
+        <f t="shared" si="7"/>
+        <v>108030D</v>
       </c>
       <c r="I14">
+        <f t="shared" si="3"/>
+        <v>17302285</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>531483</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="9"/>
-        <v>17302519</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="10"/>
-        <v>523367</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="11"/>
-        <v>523367</v>
+        <v>531483</v>
       </c>
       <c r="O14" t="s">
         <v>179</v>
@@ -1713,11 +1714,11 @@
         <v>4</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>Air : INT := 5;</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1732,35 +1733,35 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G15" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H15" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I15" t="e">
+        <f t="shared" ref="I11:I74" si="11">HEX2DEC(H15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L15" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="U15" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U15" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1775,35 +1776,35 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G16" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H16" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I16" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="U16" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1818,35 +1819,35 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G17" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H17" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I17" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="U17" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U17" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1861,35 +1862,35 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G18" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H18" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I18" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L18" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="U18" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1904,35 +1905,35 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G19" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H19" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I19" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L19" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="U19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1947,35 +1948,35 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G20" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H20" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I20" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L20" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="U20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -1990,35 +1991,35 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G21" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H21" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I21" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L21" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="U21" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -2033,35 +2034,35 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G22" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H22" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I22" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L22" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="U22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L22" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -2076,35 +2077,35 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G23" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H23" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I23" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L23" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="U23" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -2119,38 +2120,38 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G24" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H24" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I24" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L24" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -2165,31 +2166,31 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G25" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H25" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I25" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L25" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="U25" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -2211,28 +2212,28 @@
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="6"/>
-        <v>1049</v>
+        <f t="shared" si="5"/>
+        <v>815</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="8"/>
-        <v>1080419</v>
+        <f t="shared" si="7"/>
+        <v>108032F</v>
       </c>
       <c r="I26">
+        <f t="shared" si="11"/>
+        <v>17302319</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="8"/>
+        <v>531551</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="9"/>
-        <v>17302553</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="10"/>
-        <v>523435</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="11"/>
-        <v>523435</v>
+        <v>531551</v>
       </c>
       <c r="O26" t="s">
         <v>186</v>
@@ -2244,7 +2245,7 @@
         <v>5</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>SfA01 : INT := 6;</v>
       </c>
     </row>
@@ -2266,28 +2267,28 @@
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="6"/>
-        <v>1083</v>
+        <f t="shared" si="5"/>
+        <v>849</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="8"/>
-        <v>108043B</v>
+        <f t="shared" si="7"/>
+        <v>1080351</v>
       </c>
       <c r="I27">
+        <f t="shared" si="11"/>
+        <v>17302353</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="8"/>
+        <v>531619</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="9"/>
-        <v>17302587</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="10"/>
-        <v>523503</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="11"/>
-        <v>523503</v>
+        <v>531619</v>
       </c>
       <c r="O27" t="s">
         <v>187</v>
@@ -2299,7 +2300,7 @@
         <v>6</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>SfA02 : INT := 7;</v>
       </c>
     </row>
@@ -2321,28 +2322,28 @@
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="6"/>
-        <v>1117</v>
+        <f t="shared" si="5"/>
+        <v>883</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="8"/>
-        <v>108045D</v>
+        <f t="shared" si="7"/>
+        <v>1080373</v>
       </c>
       <c r="I28">
+        <f t="shared" si="11"/>
+        <v>17302387</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="8"/>
+        <v>531687</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="9"/>
-        <v>17302621</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="10"/>
-        <v>523571</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="11"/>
-        <v>523571</v>
+        <v>531687</v>
       </c>
       <c r="O28" t="s">
         <v>188</v>
@@ -2354,11 +2355,11 @@
         <v>7</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>SfA03 : INT := 8;</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19</v>
       </c>
@@ -2373,27 +2374,27 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G29" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H29" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I29" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L29" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U29" t="str">
@@ -2401,7 +2402,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
@@ -2416,35 +2417,35 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G30" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H30" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I30" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L30" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" t="str">
+        <v/>
+      </c>
+      <c r="U30" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L30" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>21</v>
       </c>
@@ -2459,35 +2460,35 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G31" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H31" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L31" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" t="str">
+        <v/>
+      </c>
+      <c r="U31" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L31" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U31" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22</v>
       </c>
@@ -2502,35 +2503,35 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G32" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H32" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I32" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L32" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" t="str">
+        <v/>
+      </c>
+      <c r="U32" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U32" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>23</v>
       </c>
@@ -2545,31 +2546,31 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G33" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H33" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I33" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L33" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" t="str">
+        <v/>
+      </c>
+      <c r="U33" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U33" t="str">
-        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -2591,28 +2592,28 @@
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="6"/>
-        <v>1151</v>
+        <f t="shared" si="5"/>
+        <v>917</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="8"/>
-        <v>108047F</v>
+        <f t="shared" si="7"/>
+        <v>1080395</v>
       </c>
       <c r="I34">
+        <f t="shared" si="11"/>
+        <v>17302421</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="8"/>
+        <v>531755</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="9"/>
-        <v>17302655</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="10"/>
-        <v>523639</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="11"/>
-        <v>523639</v>
+        <v>531755</v>
       </c>
       <c r="O34" t="s">
         <v>189</v>
@@ -2646,28 +2647,28 @@
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="6"/>
-        <v>1185</v>
+        <f t="shared" si="5"/>
+        <v>951</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="8"/>
-        <v>10804A1</v>
+        <f t="shared" si="7"/>
+        <v>10803B7</v>
       </c>
       <c r="I35">
+        <f t="shared" si="11"/>
+        <v>17302455</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="8"/>
+        <v>531823</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="9"/>
-        <v>17302689</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="10"/>
-        <v>523707</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="11"/>
-        <v>523707</v>
+        <v>531823</v>
       </c>
       <c r="O35" t="s">
         <v>190</v>
@@ -2679,7 +2680,7 @@
         <v>9</v>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>SpA02 : INT := 10;</v>
       </c>
     </row>
@@ -2701,28 +2702,28 @@
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="6"/>
-        <v>1219</v>
+        <f t="shared" si="5"/>
+        <v>985</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="8"/>
-        <v>10804C3</v>
+        <f t="shared" si="7"/>
+        <v>10803D9</v>
       </c>
       <c r="I36">
+        <f t="shared" si="11"/>
+        <v>17302489</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="8"/>
+        <v>531891</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="9"/>
-        <v>17302723</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="10"/>
-        <v>523775</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="11"/>
-        <v>523775</v>
+        <v>531891</v>
       </c>
       <c r="O36" t="s">
         <v>191</v>
@@ -2734,7 +2735,7 @@
         <v>10</v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>SpA03 : INT := 11;</v>
       </c>
     </row>
@@ -2756,28 +2757,28 @@
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="8"/>
-        <v>100000C</v>
+        <f t="shared" si="7"/>
+        <v>100000A</v>
       </c>
       <c r="I37">
+        <f t="shared" si="11"/>
+        <v>16777226</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="8"/>
+        <v>529940</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="9"/>
-        <v>16777228</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="10"/>
-        <v>521360</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="11"/>
-        <v>521360</v>
+        <v>529940</v>
       </c>
       <c r="O37" t="s">
         <v>180</v>
@@ -2811,28 +2812,28 @@
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="6"/>
-        <v>70</v>
+        <f t="shared" si="5"/>
+        <v>68</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="8"/>
-        <v>1000046</v>
+        <f t="shared" si="7"/>
+        <v>1000044</v>
       </c>
       <c r="I38">
+        <f t="shared" si="11"/>
+        <v>16777284</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="8"/>
+        <v>530056</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="9"/>
-        <v>16777286</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="10"/>
-        <v>521476</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="11"/>
-        <v>521476</v>
+        <v>530056</v>
       </c>
       <c r="O38" t="s">
         <v>181</v>
@@ -2844,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -2866,28 +2867,28 @@
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="6"/>
-        <v>128</v>
+        <f t="shared" si="5"/>
+        <v>126</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="8"/>
-        <v>1000080</v>
+        <f t="shared" si="7"/>
+        <v>100007E</v>
       </c>
       <c r="I39">
+        <f t="shared" si="11"/>
+        <v>16777342</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="8"/>
+        <v>530172</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="9"/>
-        <v>16777344</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="10"/>
-        <v>521592</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="11"/>
-        <v>521592</v>
+        <v>530172</v>
       </c>
       <c r="O39" t="s">
         <v>182</v>
@@ -2899,7 +2900,7 @@
         <v>2</v>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -2921,28 +2922,28 @@
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="6"/>
-        <v>302</v>
+        <f t="shared" si="5"/>
+        <v>300</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="8"/>
-        <v>100012E</v>
+        <f t="shared" si="7"/>
+        <v>100012C</v>
       </c>
       <c r="I40">
+        <f t="shared" si="11"/>
+        <v>16777516</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="8"/>
+        <v>530520</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="9"/>
-        <v>16777518</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="10"/>
-        <v>521940</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="11"/>
-        <v>521940</v>
+        <v>530520</v>
       </c>
       <c r="O40" t="s">
         <v>222</v>
@@ -2954,7 +2955,7 @@
         <v>5</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -2976,28 +2977,28 @@
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="6"/>
-        <v>302</v>
+        <f t="shared" si="5"/>
+        <v>300</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="8"/>
-        <v>100012E</v>
+        <f t="shared" si="7"/>
+        <v>100012C</v>
       </c>
       <c r="I41">
+        <f t="shared" si="11"/>
+        <v>16777516</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="8"/>
+        <v>530520</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="9"/>
-        <v>16777518</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="10"/>
-        <v>521940</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="11"/>
-        <v>521940</v>
+        <v>530520</v>
       </c>
       <c r="O41" t="s">
         <v>226</v>
@@ -3009,7 +3010,7 @@
         <v>5</v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3031,28 +3032,28 @@
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="6"/>
-        <v>1253</v>
+        <f t="shared" si="5"/>
+        <v>1019</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="8"/>
-        <v>10804E5</v>
+        <f t="shared" si="7"/>
+        <v>10803FB</v>
       </c>
       <c r="I42">
+        <f t="shared" si="11"/>
+        <v>17302523</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="8"/>
+        <v>531959</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="9"/>
-        <v>17302757</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="10"/>
-        <v>523843</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="11"/>
-        <v>523843</v>
+        <v>531959</v>
       </c>
       <c r="O42" t="s">
         <v>192</v>
@@ -3086,28 +3087,28 @@
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="6"/>
-        <v>360</v>
+        <f t="shared" si="5"/>
+        <v>358</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="8"/>
-        <v>1000168</v>
+        <f t="shared" si="7"/>
+        <v>1000166</v>
       </c>
       <c r="I43">
+        <f t="shared" si="11"/>
+        <v>16777574</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="8"/>
+        <v>530636</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="9"/>
-        <v>16777576</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="10"/>
-        <v>522056</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="11"/>
-        <v>522056</v>
+        <v>530636</v>
       </c>
       <c r="O43" t="s">
         <v>183</v>
@@ -3141,28 +3142,28 @@
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="6"/>
-        <v>418</v>
+        <f t="shared" si="5"/>
+        <v>416</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="8"/>
-        <v>10001A2</v>
+        <f t="shared" si="7"/>
+        <v>10001A0</v>
       </c>
       <c r="I44">
+        <f t="shared" si="11"/>
+        <v>16777632</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="8"/>
+        <v>530752</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="9"/>
-        <v>16777634</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="10"/>
-        <v>522172</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="11"/>
-        <v>522172</v>
+        <v>530752</v>
       </c>
       <c r="O44" t="s">
         <v>185</v>
@@ -3174,7 +3175,7 @@
         <v>7</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" ref="U44:U69" si="13">IF(S44="*",D44&amp;" : INT := "&amp;(T44+1)&amp;";","")</f>
+        <f t="shared" ref="U44:U69" si="12">IF(S44="*",D44&amp;" : INT := "&amp;(T44+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -3196,28 +3197,28 @@
         <v>1</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="6"/>
-        <v>418</v>
+        <f t="shared" si="5"/>
+        <v>416</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="8"/>
-        <v>10001A2</v>
+        <f t="shared" si="7"/>
+        <v>10001A0</v>
       </c>
       <c r="I45">
+        <f t="shared" si="11"/>
+        <v>16777632</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="8"/>
+        <v>530752</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="9"/>
-        <v>16777634</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="10"/>
-        <v>522172</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="11"/>
-        <v>522172</v>
+        <v>530752</v>
       </c>
       <c r="O45" t="s">
         <v>184</v>
@@ -3229,11 +3230,11 @@
         <v>7</v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>36</v>
       </c>
@@ -3244,39 +3245,39 @@
         <v>5</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" ref="E42:E61" si="14">IF(P46="",$B$2,$B$2)</f>
+        <f t="shared" ref="E46:E61" si="13">IF(P46="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G46" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H46" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I46" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L46" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K46" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L46" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U46" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>37</v>
       </c>
@@ -3287,39 +3288,39 @@
         <v>6</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G47" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H47" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I47" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L47" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K47" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L47" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>38</v>
       </c>
@@ -3330,39 +3331,39 @@
         <v>7</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G48" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H48" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I48" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L48" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K48" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L48" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U48" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>39</v>
       </c>
@@ -3373,39 +3374,39 @@
         <v>8</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G49" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H49" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I49" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L49" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L49" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U49" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>40</v>
       </c>
@@ -3416,39 +3417,39 @@
         <v>9</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G50" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H50" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I50" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L50" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K50" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L50" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U50" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>41</v>
       </c>
@@ -3459,39 +3460,39 @@
         <v>10</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G51" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H51" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I51" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L51" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K51" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L51" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>42</v>
       </c>
@@ -3502,39 +3503,39 @@
         <v>11</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G52" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H52" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I52" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L52" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K52" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L52" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>43</v>
       </c>
@@ -3545,39 +3546,39 @@
         <v>12</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G53" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H53" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I53" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L53" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K53" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L53" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>44</v>
       </c>
@@ -3588,39 +3589,39 @@
         <v>13</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G54" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H54" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I54" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L54" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L54" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U54" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>45</v>
       </c>
@@ -3631,39 +3632,39 @@
         <v>14</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G55" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H55" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I55" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L55" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K55" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L55" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U55" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>46</v>
       </c>
@@ -3674,39 +3675,39 @@
         <v>15</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G56" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H56" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I56" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L56" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K56" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L56" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U56" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>47</v>
       </c>
@@ -3717,35 +3718,35 @@
         <v>16</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G57" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H57" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I57" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L57" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K57" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L57" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U57" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -3763,32 +3764,32 @@
         <v>215</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="6"/>
-        <v>186</v>
+        <f t="shared" si="5"/>
+        <v>184</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="8"/>
-        <v>10000BA</v>
+        <f t="shared" si="7"/>
+        <v>10000B8</v>
       </c>
       <c r="I58">
+        <f t="shared" si="11"/>
+        <v>16777400</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="8"/>
+        <v>530288</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="9"/>
-        <v>16777402</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="10"/>
-        <v>521708</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="11"/>
-        <v>521708</v>
+        <v>530288</v>
       </c>
       <c r="O58" t="s">
         <v>221</v>
@@ -3800,7 +3801,7 @@
         <v>3</v>
       </c>
       <c r="U58" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -3818,32 +3819,32 @@
         <v>216</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="6"/>
-        <v>186</v>
+        <f t="shared" si="5"/>
+        <v>184</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="8"/>
-        <v>10000BA</v>
+        <f t="shared" si="7"/>
+        <v>10000B8</v>
       </c>
       <c r="I59">
+        <f t="shared" si="11"/>
+        <v>16777400</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="8"/>
+        <v>530288</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="9"/>
-        <v>16777402</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="10"/>
-        <v>521708</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="11"/>
-        <v>521708</v>
+        <v>530288</v>
       </c>
       <c r="O59" t="s">
         <v>223</v>
@@ -3855,7 +3856,7 @@
         <v>3</v>
       </c>
       <c r="U59" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -3873,32 +3874,32 @@
         <v>217</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="6"/>
-        <v>244</v>
+        <f t="shared" si="5"/>
+        <v>242</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="8"/>
-        <v>10000F4</v>
+        <f t="shared" si="7"/>
+        <v>10000F2</v>
       </c>
       <c r="I60">
+        <f t="shared" si="11"/>
+        <v>16777458</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="8"/>
+        <v>530404</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="9"/>
-        <v>16777460</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="10"/>
-        <v>521824</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="11"/>
-        <v>521824</v>
+        <v>530404</v>
       </c>
       <c r="O60" t="s">
         <v>224</v>
@@ -3910,7 +3911,7 @@
         <v>4</v>
       </c>
       <c r="U60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -3928,32 +3929,32 @@
         <v>218</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="6"/>
-        <v>244</v>
+        <f t="shared" si="5"/>
+        <v>242</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="8"/>
-        <v>10000F4</v>
+        <f t="shared" si="7"/>
+        <v>10000F2</v>
       </c>
       <c r="I61">
+        <f t="shared" si="11"/>
+        <v>16777458</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="8"/>
+        <v>530404</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="9"/>
-        <v>16777460</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="10"/>
-        <v>521824</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="11"/>
-        <v>521824</v>
+        <v>530404</v>
       </c>
       <c r="O61" t="s">
         <v>225</v>
@@ -3965,11 +3966,11 @@
         <v>4</v>
       </c>
       <c r="U61" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>52</v>
       </c>
@@ -3984,27 +3985,27 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G62" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H62" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I62" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L62" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K62" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L62" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U62" t="str">
@@ -4012,7 +4013,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>53</v>
       </c>
@@ -4027,35 +4028,35 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G63" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H63" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I63" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L63" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K63" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L63" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U63" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>54</v>
       </c>
@@ -4066,39 +4067,39 @@
         <v>7</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" ref="E59:E85" si="15">IF(P64="",$B$2,$B$2)</f>
+        <f t="shared" ref="E64:E85" si="14">IF(P64="",$B$2,$B$2)</f>
         <v>1</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G64" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H64" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I64" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L64" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K64" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L64" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U64" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>55</v>
       </c>
@@ -4109,39 +4110,39 @@
         <v>8</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G65" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H65" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I65" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L65" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K65" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L65" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U65" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>56</v>
       </c>
@@ -4152,39 +4153,39 @@
         <v>9</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G66" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H66" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I66" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L66" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K66" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L66" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U66" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>57</v>
       </c>
@@ -4195,31 +4196,31 @@
         <v>10</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G67" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H67" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I67" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L67" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L67" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U67" t="str">
@@ -4227,7 +4228,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>58</v>
       </c>
@@ -4238,39 +4239,39 @@
         <v>11</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G68" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H68" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I68" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L68" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K68" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L68" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U68" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>59</v>
       </c>
@@ -4281,39 +4282,39 @@
         <v>12</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G69" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H69" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I69" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L69" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K69" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L69" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U69" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>60</v>
       </c>
@@ -4324,31 +4325,31 @@
         <v>13</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G70" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H70" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I70" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L70" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K70" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L70" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U70" t="str">
@@ -4356,7 +4357,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>61</v>
       </c>
@@ -4367,39 +4368,39 @@
         <v>14</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G71" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H71" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I71" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L71" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K71" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L71" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U71" t="str">
-        <f t="shared" ref="U71:U73" si="16">IF(S71="*",D71&amp;" : INT := "&amp;(T71+1)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U71:U73" si="15">IF(S71="*",D71&amp;" : INT := "&amp;(T71+1)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>62</v>
       </c>
@@ -4410,39 +4411,39 @@
         <v>15</v>
       </c>
       <c r="E72" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G72" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H72" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I72" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U72" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="F72" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G72" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H72" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I72" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K72" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L72" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U72" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>63</v>
       </c>
@@ -4453,35 +4454,35 @@
         <v>16</v>
       </c>
       <c r="E73" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G73" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H73" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I73" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U73" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="F73" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G73" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H73" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I73" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K73" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L73" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U73" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -4499,35 +4500,35 @@
         <v>57</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1020000</v>
       </c>
       <c r="I74">
+        <f t="shared" si="11"/>
+        <v>16908288</v>
+      </c>
+      <c r="J74">
+        <v>529920</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L74">
         <f t="shared" si="9"/>
-        <v>16908288</v>
-      </c>
-      <c r="J74">
-        <v>521336</v>
-      </c>
-      <c r="K74" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L74">
-        <f t="shared" si="11"/>
-        <v>521336</v>
+        <v>529920</v>
       </c>
       <c r="M74">
         <v>2</v>
@@ -4554,35 +4555,35 @@
         <v>48</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" ref="F75:F85" si="17">IF(L75&lt;&gt;"",FLOOR((L75-MIN(L:L))/2,1),"")</f>
+        <f t="shared" ref="F75:F85" si="16">IF(L75&lt;&gt;"",FLOOR((L75-MIN(L:L))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" ref="G75:G85" si="18">IF(MOD(L75-$B$6,2)=1,8+M75,M75)</f>
+        <f t="shared" ref="G75:G85" si="17">IF(MOD(L75-$B$6,2)=1,8+M75,M75)</f>
         <v>3</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" ref="H75:H85" si="19">DEC2HEX(E75*HEX2DEC(1000000) +G75*HEX2DEC(10000) +F75)</f>
+        <f t="shared" ref="H75:H85" si="18">DEC2HEX(E75*HEX2DEC(1000000) +G75*HEX2DEC(10000) +F75)</f>
         <v>1030000</v>
       </c>
       <c r="I75">
-        <f t="shared" ref="I75:I85" si="20">HEX2DEC(H75)</f>
+        <f t="shared" ref="I75:I85" si="19">HEX2DEC(H75)</f>
         <v>16973824</v>
       </c>
       <c r="J75">
-        <v>521336</v>
+        <v>529920</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" ref="K75:K85" si="21">IF(Q75&lt;&gt;"",Q75*116+$B$3,IF(R75&lt;&gt;"",R75*116+$B$3,IF(T75&lt;&gt;"",T75*68+$B$5,"")))</f>
+        <f t="shared" ref="K75:K85" si="20">IF(Q75&lt;&gt;"",Q75*116+$B$3,IF(R75&lt;&gt;"",R75*116+$B$3,IF(T75&lt;&gt;"",T75*68+$B$5,"")))</f>
         <v/>
       </c>
       <c r="L75">
-        <f t="shared" ref="L75:L85" si="22">IF(J75&lt;&gt;"",J75,K75)</f>
-        <v>521336</v>
+        <f t="shared" ref="L75:L85" si="21">IF(AND(J75&lt;&gt;"",D75&lt;&gt;""),J75,K75)</f>
+        <v>529920</v>
       </c>
       <c r="M75">
         <v>3</v>
@@ -4591,7 +4592,7 @@
         <v>260</v>
       </c>
       <c r="U75" t="str">
-        <f t="shared" ref="U75:U85" si="23">IF(S75="*",D75&amp;" : INT := "&amp;(T75+1)&amp;";","")</f>
+        <f t="shared" ref="U75:U85" si="22">IF(S75="*",D75&amp;" : INT := "&amp;(T75+1)&amp;";","")</f>
         <v/>
       </c>
     </row>
@@ -4609,35 +4610,35 @@
         <v>49</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F76" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="1">
+        <v>4</v>
+      </c>
+      <c r="H76" t="str">
         <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="H76" t="str">
+        <v>1040000</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="19"/>
-        <v>1040000</v>
-      </c>
-      <c r="I76">
+        <v>17039360</v>
+      </c>
+      <c r="J76">
+        <v>529920</v>
+      </c>
+      <c r="K76" t="str">
         <f t="shared" si="20"/>
-        <v>17039360</v>
-      </c>
-      <c r="J76">
-        <v>521336</v>
-      </c>
-      <c r="K76" t="str">
+        <v/>
+      </c>
+      <c r="L76">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L76">
-        <f t="shared" si="22"/>
-        <v>521336</v>
+        <v>529920</v>
       </c>
       <c r="M76">
         <v>4</v>
@@ -4646,7 +4647,7 @@
         <v>261</v>
       </c>
       <c r="U76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4664,35 +4665,35 @@
         <v>50</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F77" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="1">
+        <v>5</v>
+      </c>
+      <c r="H77" t="str">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="H77" t="str">
+        <v>1050000</v>
+      </c>
+      <c r="I77">
         <f t="shared" si="19"/>
-        <v>1050000</v>
-      </c>
-      <c r="I77">
+        <v>17104896</v>
+      </c>
+      <c r="J77">
+        <v>529920</v>
+      </c>
+      <c r="K77" t="str">
         <f t="shared" si="20"/>
-        <v>17104896</v>
-      </c>
-      <c r="J77">
-        <v>521336</v>
-      </c>
-      <c r="K77" t="str">
+        <v/>
+      </c>
+      <c r="L77">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L77">
-        <f t="shared" si="22"/>
-        <v>521336</v>
+        <v>529920</v>
       </c>
       <c r="M77">
         <v>5</v>
@@ -4701,7 +4702,7 @@
         <v>262</v>
       </c>
       <c r="U77" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4719,35 +4720,35 @@
         <v>51</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F78" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="1">
+        <v>6</v>
+      </c>
+      <c r="H78" t="str">
         <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="H78" t="str">
+        <v>1060000</v>
+      </c>
+      <c r="I78">
         <f t="shared" si="19"/>
-        <v>1060000</v>
-      </c>
-      <c r="I78">
+        <v>17170432</v>
+      </c>
+      <c r="J78">
+        <v>529920</v>
+      </c>
+      <c r="K78" t="str">
         <f t="shared" si="20"/>
-        <v>17170432</v>
-      </c>
-      <c r="J78">
-        <v>521336</v>
-      </c>
-      <c r="K78" t="str">
+        <v/>
+      </c>
+      <c r="L78">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L78">
-        <f t="shared" si="22"/>
-        <v>521336</v>
+        <v>529920</v>
       </c>
       <c r="M78">
         <v>6</v>
@@ -4756,7 +4757,7 @@
         <v>263</v>
       </c>
       <c r="U78" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4774,35 +4775,35 @@
         <v>53</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F79" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="1">
+        <v>7</v>
+      </c>
+      <c r="H79" t="str">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="H79" t="str">
+        <v>1070000</v>
+      </c>
+      <c r="I79">
         <f t="shared" si="19"/>
-        <v>1070000</v>
-      </c>
-      <c r="I79">
+        <v>17235968</v>
+      </c>
+      <c r="J79">
+        <v>529920</v>
+      </c>
+      <c r="K79" t="str">
         <f t="shared" si="20"/>
-        <v>17235968</v>
-      </c>
-      <c r="J79">
-        <v>521336</v>
-      </c>
-      <c r="K79" t="str">
+        <v/>
+      </c>
+      <c r="L79">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L79">
-        <f t="shared" si="22"/>
-        <v>521336</v>
+        <v>529920</v>
       </c>
       <c r="M79">
         <v>7</v>
@@ -4811,7 +4812,7 @@
         <v>193</v>
       </c>
       <c r="U79" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4829,35 +4830,35 @@
         <v>54</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F80" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" t="str">
         <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="H80" t="str">
+        <v>1000000</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="19"/>
-        <v>1080000</v>
-      </c>
-      <c r="I80">
+        <v>16777216</v>
+      </c>
+      <c r="J80">
+        <v>529920</v>
+      </c>
+      <c r="K80" t="str">
         <f t="shared" si="20"/>
-        <v>17301504</v>
-      </c>
-      <c r="J80">
-        <v>521337</v>
-      </c>
-      <c r="K80" t="str">
+        <v/>
+      </c>
+      <c r="L80">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L80">
-        <f t="shared" si="22"/>
-        <v>521337</v>
+        <v>529920</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -4866,7 +4867,7 @@
         <v>194</v>
       </c>
       <c r="U80" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4884,35 +4885,35 @@
         <v>58</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F81" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="1">
+        <v>9</v>
+      </c>
+      <c r="H81" t="str">
         <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="H81" t="str">
+        <v>1090000</v>
+      </c>
+      <c r="I81">
         <f t="shared" si="19"/>
-        <v>1090000</v>
-      </c>
-      <c r="I81">
+        <v>17367040</v>
+      </c>
+      <c r="J81">
+        <v>529921</v>
+      </c>
+      <c r="K81" t="str">
         <f t="shared" si="20"/>
-        <v>17367040</v>
-      </c>
-      <c r="J81">
-        <v>521337</v>
-      </c>
-      <c r="K81" t="str">
+        <v/>
+      </c>
+      <c r="L81">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L81">
-        <f t="shared" si="22"/>
-        <v>521337</v>
+        <v>529921</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -4921,7 +4922,7 @@
         <v>198</v>
       </c>
       <c r="U81" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4939,35 +4940,35 @@
         <v>70</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F82" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="1">
+        <v>10</v>
+      </c>
+      <c r="H82" t="str">
         <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="H82" t="str">
+        <v>10A0000</v>
+      </c>
+      <c r="I82">
         <f t="shared" si="19"/>
-        <v>10A0000</v>
-      </c>
-      <c r="I82">
+        <v>17432576</v>
+      </c>
+      <c r="J82">
+        <v>529921</v>
+      </c>
+      <c r="K82" t="str">
         <f t="shared" si="20"/>
-        <v>17432576</v>
-      </c>
-      <c r="J82">
-        <v>521337</v>
-      </c>
-      <c r="K82" t="str">
+        <v/>
+      </c>
+      <c r="L82">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L82">
-        <f t="shared" si="22"/>
-        <v>521337</v>
+        <v>529921</v>
       </c>
       <c r="M82">
         <v>2</v>
@@ -4976,7 +4977,7 @@
         <v>197</v>
       </c>
       <c r="U82" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4994,35 +4995,35 @@
         <v>55</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F83" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="1">
+        <v>11</v>
+      </c>
+      <c r="H83" t="str">
         <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="H83" t="str">
+        <v>10B0000</v>
+      </c>
+      <c r="I83">
         <f t="shared" si="19"/>
-        <v>10B0000</v>
-      </c>
-      <c r="I83">
+        <v>17498112</v>
+      </c>
+      <c r="J83">
+        <v>529921</v>
+      </c>
+      <c r="K83" t="str">
         <f t="shared" si="20"/>
-        <v>17498112</v>
-      </c>
-      <c r="J83">
-        <v>521337</v>
-      </c>
-      <c r="K83" t="str">
+        <v/>
+      </c>
+      <c r="L83">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L83">
-        <f t="shared" si="22"/>
-        <v>521337</v>
+        <v>529921</v>
       </c>
       <c r="M83">
         <v>3</v>
@@ -5031,7 +5032,7 @@
         <v>196</v>
       </c>
       <c r="U83" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -5049,35 +5050,35 @@
         <v>52</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F84" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="1">
+        <v>12</v>
+      </c>
+      <c r="H84" t="str">
         <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="H84" t="str">
+        <v>10C0000</v>
+      </c>
+      <c r="I84">
         <f t="shared" si="19"/>
-        <v>10C0000</v>
-      </c>
-      <c r="I84">
+        <v>17563648</v>
+      </c>
+      <c r="J84">
+        <v>529921</v>
+      </c>
+      <c r="K84" t="str">
         <f t="shared" si="20"/>
-        <v>17563648</v>
-      </c>
-      <c r="J84">
-        <v>521337</v>
-      </c>
-      <c r="K84" t="str">
+        <v/>
+      </c>
+      <c r="L84">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L84">
-        <f t="shared" si="22"/>
-        <v>521337</v>
+        <v>529921</v>
       </c>
       <c r="M84">
         <v>4</v>
@@ -5086,7 +5087,7 @@
         <v>265</v>
       </c>
       <c r="U84" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -5104,35 +5105,35 @@
         <v>56</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F85" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="1">
+        <v>13</v>
+      </c>
+      <c r="H85" t="str">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="H85" t="str">
+        <v>10D0000</v>
+      </c>
+      <c r="I85">
         <f t="shared" si="19"/>
-        <v>10D0000</v>
-      </c>
-      <c r="I85">
+        <v>17629184</v>
+      </c>
+      <c r="J85">
+        <v>529921</v>
+      </c>
+      <c r="K85" t="str">
         <f t="shared" si="20"/>
-        <v>17629184</v>
-      </c>
-      <c r="J85">
-        <v>521337</v>
-      </c>
-      <c r="K85" t="str">
+        <v/>
+      </c>
+      <c r="L85">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L85">
-        <f t="shared" si="22"/>
-        <v>521337</v>
+        <v>529921</v>
       </c>
       <c r="M85">
         <v>5</v>
@@ -5141,12 +5142,17 @@
         <v>195</v>
       </c>
       <c r="U85" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A9:U85" xr:uid="{A89B904C-2B30-413B-8D81-C58D97718B2C}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A10:U85">
       <sortCondition ref="B10:B85"/>
       <sortCondition ref="C10:C85"/>
@@ -5163,10 +5169,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFD5AD-95E3-457F-903E-F0D470C50CCA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B57"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5202,7 +5209,7 @@
       </c>
       <c r="K2">
         <f>K8-B4</f>
-        <v>7953</v>
+        <v>7921</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -5219,7 +5226,7 @@
       </c>
       <c r="B4">
         <f>MIN(L:L)</f>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>59</v>
@@ -5234,7 +5241,7 @@
       </c>
       <c r="B5">
         <f>MIN(K:K)</f>
-        <v>7953</v>
+        <v>7921</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -5321,7 +5328,7 @@
       </c>
       <c r="F8" s="1">
         <f>IF(L8&lt;&gt;"",FLOOR((L8-$B$4)/2,1),"")</f>
-        <v>3976</v>
+        <v>3960</v>
       </c>
       <c r="G8" s="1">
         <f>IF(MOD(L8-$B$4,2)=1,8+M8,M8)</f>
@@ -5329,18 +5336,18 @@
       </c>
       <c r="H8" t="str">
         <f>DEC2HEX(E8*HEX2DEC(1000000) +G8*HEX2DEC(10000) +F8)</f>
-        <v>2080F88</v>
+        <v>2080F78</v>
       </c>
       <c r="I8">
         <f>HEX2DEC(H8)</f>
-        <v>34082696</v>
+        <v>34082680</v>
       </c>
       <c r="K8">
         <f>IF(Q8&lt;&gt;"",$B$3+Q8*116,"")</f>
         <v>521358</v>
       </c>
       <c r="L8">
-        <f>IF(J8&lt;&gt;"",J8,K8)</f>
+        <f>IF(AND(J8&lt;&gt;"",D8&lt;&gt;""),J8,K8)</f>
         <v>521358</v>
       </c>
       <c r="N8" t="s">
@@ -5379,7 +5386,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" ref="F9:F57" si="1">IF(L9&lt;&gt;"",FLOOR((L9-$B$4)/2,1),"")</f>
-        <v>4034</v>
+        <v>4018</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ref="G9:G57" si="2">IF(MOD(L9-$B$4,2)=1,8+M9,M9)</f>
@@ -5387,18 +5394,18 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" ref="H9:H57" si="3">DEC2HEX(E9*HEX2DEC(1000000) +G9*HEX2DEC(10000) +F9)</f>
-        <v>2080FC2</v>
+        <v>2080FB2</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I57" si="4">HEX2DEC(H9)</f>
-        <v>34082754</v>
+        <f t="shared" ref="I9:I12" si="4">HEX2DEC(H9)</f>
+        <v>34082738</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K57" si="5">IF(Q9&lt;&gt;"",$B$3+Q9*116,"")</f>
         <v>521474</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L57" si="6">IF(J9&lt;&gt;"",J9,K9)</f>
+        <f t="shared" ref="L9:L57" si="6">IF(AND(J9&lt;&gt;"",D9&lt;&gt;""),J9,K9)</f>
         <v>521474</v>
       </c>
       <c r="N9" t="s">
@@ -5437,7 +5444,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>4092</v>
+        <v>4076</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
@@ -5445,11 +5452,11 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
-        <v>2080FFC</v>
+        <v>2080FEC</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>34082812</v>
+        <v>34082796</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
@@ -5495,7 +5502,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>4498</v>
+        <v>4482</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
@@ -5503,11 +5510,11 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
-        <v>2081192</v>
+        <v>2081182</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>34083218</v>
+        <v>34083202</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
@@ -5553,7 +5560,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>4440</v>
+        <v>4424</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="2"/>
@@ -5561,11 +5568,11 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
-        <v>2081158</v>
+        <v>2081148</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>34083160</v>
+        <v>34083144</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
@@ -5592,7 +5599,7 @@
         <v>FCy04 : INT :=9;</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -5619,7 +5626,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I9:I57" si="8">HEX2DEC(H13)</f>
         <v>#VALUE!</v>
       </c>
       <c r="K13" t="str">
@@ -5635,7 +5642,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -5662,7 +5669,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K14" t="str">
@@ -5681,7 +5688,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -5708,7 +5715,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I15" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K15" t="str">
@@ -5754,11 +5761,11 @@
         <v>2000000</v>
       </c>
       <c r="I16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33554432</v>
       </c>
       <c r="J16">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="5"/>
@@ -5766,7 +5773,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -5809,11 +5816,11 @@
         <v>2010000</v>
       </c>
       <c r="I17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33619968</v>
       </c>
       <c r="J17">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="5"/>
@@ -5821,7 +5828,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -5864,11 +5871,11 @@
         <v>2020000</v>
       </c>
       <c r="I18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33685504</v>
       </c>
       <c r="J18">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="5"/>
@@ -5876,7 +5883,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M18">
         <v>2</v>
@@ -5919,11 +5926,11 @@
         <v>2030000</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33751040</v>
       </c>
       <c r="J19">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="5"/>
@@ -5931,7 +5938,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M19">
         <v>3</v>
@@ -5974,11 +5981,11 @@
         <v>2040000</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33816576</v>
       </c>
       <c r="J20">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="5"/>
@@ -5986,7 +5993,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M20">
         <v>4</v>
@@ -6029,11 +6036,11 @@
         <v>2050000</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33882112</v>
       </c>
       <c r="J21">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="5"/>
@@ -6041,7 +6048,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M21">
         <v>5</v>
@@ -6084,11 +6091,11 @@
         <v>2060000</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33947648</v>
       </c>
       <c r="J22">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="5"/>
@@ -6096,7 +6103,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M22">
         <v>6</v>
@@ -6139,11 +6146,11 @@
         <v>2070000</v>
       </c>
       <c r="I23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>34013184</v>
       </c>
       <c r="J23">
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="5"/>
@@ -6151,7 +6158,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="6"/>
-        <v>513405</v>
+        <v>513437</v>
       </c>
       <c r="M23">
         <v>7</v>
@@ -6183,7 +6190,7 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>4324</v>
+        <v>4308</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="2"/>
@@ -6191,11 +6198,11 @@
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
-        <v>20810E4</v>
+        <v>20810D4</v>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
-        <v>34083044</v>
+        <f t="shared" si="8"/>
+        <v>34083028</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
@@ -6241,7 +6248,7 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
-        <v>4382</v>
+        <v>4366</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="2"/>
@@ -6249,11 +6256,11 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
-        <v>208111E</v>
+        <v>208110E</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
-        <v>34083102</v>
+        <f t="shared" si="8"/>
+        <v>34083086</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
@@ -6280,7 +6287,7 @@
         <v>CCy2 : INT :=8;</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -6307,7 +6314,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K26" t="str">
@@ -6323,7 +6330,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
@@ -6350,7 +6357,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I27" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K27" t="str">
@@ -6366,7 +6373,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
@@ -6393,7 +6400,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K28" t="str">
@@ -6409,7 +6416,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
@@ -6436,7 +6443,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I29" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K29" t="str">
@@ -6452,7 +6459,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
@@ -6479,7 +6486,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I30" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K30" t="str">
@@ -6495,7 +6502,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
@@ -6522,7 +6529,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I31" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K31" t="str">
@@ -6538,7 +6545,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24</v>
       </c>
@@ -6565,7 +6572,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I32" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K32" t="str">
@@ -6581,7 +6588,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>25</v>
       </c>
@@ -6608,7 +6615,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I33" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K33" t="str">
@@ -6624,7 +6631,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
@@ -6651,7 +6658,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K34" t="str">
@@ -6667,7 +6674,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
@@ -6694,7 +6701,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I35" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K35" t="str">
@@ -6710,7 +6717,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
@@ -6737,7 +6744,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I36" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K36" t="str">
@@ -6753,7 +6760,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
@@ -6780,7 +6787,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I37" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K37" t="str">
@@ -6796,7 +6803,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -6823,7 +6830,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I38" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K38" t="str">
@@ -6839,7 +6846,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -6866,7 +6873,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I39" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K39" t="str">
@@ -6901,7 +6908,7 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" si="1"/>
-        <v>4150</v>
+        <v>4134</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="2"/>
@@ -6909,11 +6916,11 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="3"/>
-        <v>2081036</v>
+        <v>2081026</v>
       </c>
       <c r="I40">
-        <f t="shared" si="4"/>
-        <v>34082870</v>
+        <f t="shared" si="8"/>
+        <v>34082854</v>
       </c>
       <c r="K40">
         <f t="shared" si="5"/>
@@ -6959,7 +6966,7 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="1"/>
-        <v>4208</v>
+        <v>4192</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="2"/>
@@ -6967,11 +6974,11 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
-        <v>2081070</v>
+        <v>2081060</v>
       </c>
       <c r="I41">
-        <f t="shared" si="4"/>
-        <v>34082928</v>
+        <f t="shared" si="8"/>
+        <v>34082912</v>
       </c>
       <c r="K41">
         <f t="shared" si="5"/>
@@ -7017,7 +7024,7 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="1"/>
-        <v>4266</v>
+        <v>4250</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="2"/>
@@ -7025,11 +7032,11 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" si="3"/>
-        <v>20810AA</v>
+        <v>208109A</v>
       </c>
       <c r="I42">
-        <f t="shared" si="4"/>
-        <v>34082986</v>
+        <f t="shared" si="8"/>
+        <v>34082970</v>
       </c>
       <c r="K42">
         <f t="shared" si="5"/>
@@ -7056,7 +7063,7 @@
         <v>FCy03 : INT :=6;</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
@@ -7083,7 +7090,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I43" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K43" t="str">
@@ -7099,7 +7106,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
@@ -7126,7 +7133,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I44" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K44" t="str">
@@ -7142,7 +7149,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>37</v>
       </c>
@@ -7156,21 +7163,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>4393</v>
-      </c>
-      <c r="G45" s="1">
+        <v/>
+      </c>
+      <c r="G45" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H45" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H45" t="e">
         <f t="shared" si="3"/>
-        <v>2081129</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="4"/>
-        <v>34083113</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I45" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J45">
         <v>522192</v>
@@ -7179,9 +7186,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L45">
-        <f t="shared" si="6"/>
-        <v>522192</v>
+      <c r="L45" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="M45">
         <v>0</v>
@@ -7191,7 +7198,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>38</v>
       </c>
@@ -7205,21 +7212,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>4393</v>
-      </c>
-      <c r="G46" s="1">
+        <v/>
+      </c>
+      <c r="G46" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H46" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H46" t="e">
         <f t="shared" si="3"/>
-        <v>2091129</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="4"/>
-        <v>34148649</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I46" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J46">
         <v>522192</v>
@@ -7228,9 +7235,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L46">
-        <f t="shared" si="6"/>
-        <v>522192</v>
+      <c r="L46" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="M46">
         <v>1</v>
@@ -7240,7 +7247,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>39</v>
       </c>
@@ -7254,21 +7261,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>4393</v>
-      </c>
-      <c r="G47" s="1">
+        <v/>
+      </c>
+      <c r="G47" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H47" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H47" t="e">
         <f t="shared" si="3"/>
-        <v>20A1129</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="4"/>
-        <v>34214185</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I47" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J47">
         <v>522192</v>
@@ -7277,9 +7284,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L47">
-        <f t="shared" si="6"/>
-        <v>522192</v>
+      <c r="L47" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="M47">
         <v>2</v>
@@ -7289,7 +7296,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>40</v>
       </c>
@@ -7303,21 +7310,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>4393</v>
-      </c>
-      <c r="G48" s="1">
+        <v/>
+      </c>
+      <c r="G48" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="H48" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" t="e">
         <f t="shared" si="3"/>
-        <v>20B1129</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="4"/>
-        <v>34279721</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J48">
         <v>522192</v>
@@ -7326,9 +7333,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L48">
-        <f t="shared" si="6"/>
-        <v>522192</v>
+      <c r="L48" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="M48">
         <v>3</v>
@@ -7338,7 +7345,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>41</v>
       </c>
@@ -7352,21 +7359,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>4329</v>
-      </c>
-      <c r="G49" s="1">
+        <v/>
+      </c>
+      <c r="G49" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H49" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H49" t="e">
         <f t="shared" si="3"/>
-        <v>20210E9</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="4"/>
-        <v>33689833</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I49" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J49">
         <v>522063</v>
@@ -7375,9 +7382,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L49">
-        <f t="shared" si="6"/>
-        <v>522063</v>
+      <c r="L49" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="M49">
         <v>2</v>
@@ -7387,7 +7394,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>42</v>
       </c>
@@ -7401,21 +7408,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>4329</v>
-      </c>
-      <c r="G50" s="1">
+        <v/>
+      </c>
+      <c r="G50" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H50" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" t="e">
         <f t="shared" si="3"/>
-        <v>20310E9</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="4"/>
-        <v>33755369</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J50">
         <v>522063</v>
@@ -7424,9 +7431,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L50">
-        <f t="shared" si="6"/>
-        <v>522063</v>
+      <c r="L50" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="M50">
         <v>3</v>
@@ -7436,7 +7443,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43</v>
       </c>
@@ -7450,21 +7457,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>4329</v>
-      </c>
-      <c r="G51" s="1">
+        <v/>
+      </c>
+      <c r="G51" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H51" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H51" t="e">
         <f t="shared" si="3"/>
-        <v>20010E9</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="4"/>
-        <v>33558761</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I51" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J51">
         <v>522063</v>
@@ -7473,9 +7480,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L51">
-        <f t="shared" si="6"/>
-        <v>522063</v>
+      <c r="L51" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="M51">
         <v>0</v>
@@ -7485,7 +7492,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>44</v>
       </c>
@@ -7499,21 +7506,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>4329</v>
-      </c>
-      <c r="G52" s="1">
+        <v/>
+      </c>
+      <c r="G52" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H52" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H52" t="e">
         <f t="shared" si="3"/>
-        <v>20110E9</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="4"/>
-        <v>33624297</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I52" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J52">
         <v>522063</v>
@@ -7522,9 +7529,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L52">
-        <f t="shared" si="6"/>
-        <v>522063</v>
+      <c r="L52" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="M52">
         <v>1</v>
@@ -7553,7 +7560,7 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="1"/>
-        <v>3965</v>
+        <v>8241</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="2"/>
@@ -7561,14 +7568,14 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" si="3"/>
-        <v>2080F7D</v>
+        <v>2082031</v>
       </c>
       <c r="I53">
-        <f t="shared" si="4"/>
-        <v>34082685</v>
+        <f t="shared" si="8"/>
+        <v>34086961</v>
       </c>
       <c r="J53">
-        <v>521336</v>
+        <v>529920</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="5"/>
@@ -7576,7 +7583,7 @@
       </c>
       <c r="L53">
         <f t="shared" si="6"/>
-        <v>521336</v>
+        <v>529920</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -7608,7 +7615,7 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" si="1"/>
-        <v>3965</v>
+        <v>8241</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="2"/>
@@ -7616,14 +7623,14 @@
       </c>
       <c r="H54" t="str">
         <f t="shared" si="3"/>
-        <v>2090F7D</v>
+        <v>2092031</v>
       </c>
       <c r="I54">
-        <f t="shared" si="4"/>
-        <v>34148221</v>
+        <f t="shared" si="8"/>
+        <v>34152497</v>
       </c>
       <c r="J54">
-        <v>521336</v>
+        <v>529920</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="5"/>
@@ -7631,7 +7638,7 @@
       </c>
       <c r="L54">
         <f t="shared" si="6"/>
-        <v>521336</v>
+        <v>529920</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -7663,7 +7670,7 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="1"/>
-        <v>3966</v>
+        <v>8242</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="2"/>
@@ -7671,14 +7678,14 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="3"/>
-        <v>2060F7E</v>
+        <v>2062032</v>
       </c>
       <c r="I55">
-        <f t="shared" si="4"/>
-        <v>33951614</v>
+        <f t="shared" si="8"/>
+        <v>33955890</v>
       </c>
       <c r="J55">
-        <v>521337</v>
+        <v>529921</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="5"/>
@@ -7686,7 +7693,7 @@
       </c>
       <c r="L55">
         <f t="shared" si="6"/>
-        <v>521337</v>
+        <v>529921</v>
       </c>
       <c r="M55">
         <v>6</v>
@@ -7718,7 +7725,7 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="1"/>
-        <v>3966</v>
+        <v>8242</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="2"/>
@@ -7726,14 +7733,14 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="3"/>
-        <v>2070F7E</v>
+        <v>2072032</v>
       </c>
       <c r="I56">
-        <f t="shared" si="4"/>
-        <v>34017150</v>
+        <f t="shared" si="8"/>
+        <v>34021426</v>
       </c>
       <c r="J56">
-        <v>521337</v>
+        <v>529921</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="5"/>
@@ -7741,7 +7748,7 @@
       </c>
       <c r="L56">
         <f t="shared" si="6"/>
-        <v>521337</v>
+        <v>529921</v>
       </c>
       <c r="M56">
         <v>7</v>
@@ -7773,7 +7780,7 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="1"/>
-        <v>3966</v>
+        <v>8242</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="2"/>
@@ -7781,14 +7788,14 @@
       </c>
       <c r="H57" t="str">
         <f t="shared" si="3"/>
-        <v>2080F7E</v>
+        <v>2082032</v>
       </c>
       <c r="I57">
-        <f t="shared" si="4"/>
-        <v>34082686</v>
+        <f t="shared" si="8"/>
+        <v>34086962</v>
       </c>
       <c r="J57">
-        <v>521338</v>
+        <v>529922</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="5"/>
@@ -7796,7 +7803,7 @@
       </c>
       <c r="L57">
         <f t="shared" si="6"/>
-        <v>521338</v>
+        <v>529922</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -7810,7 +7817,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:R54" xr:uid="{8998380E-F444-46A0-9507-09ED559E5F46}">
+  <autoFilter ref="A7:R57" xr:uid="{8998380E-F444-46A0-9507-09ED559E5F46}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A8:R54">
       <sortCondition ref="B8:B54"/>
       <sortCondition ref="C8:C54"/>
